--- a/course_project/data/df_pv_data_germany.xlsx
+++ b/course_project/data/df_pv_data_germany.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gehwo\polybox\Shared\Project Big Data\Daten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi Eckmann\Desktop\ETH Studium\MASTERSTUDIUM\2. Semester\Big Data for Public Policy\big_data_policy_2020\course_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38F0134-8DB3-4EA0-93D8-8C414C46F4F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8390D798-53A3-4E84-811A-3270020FB925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="37">
-  <si>
-    <t>Jahr</t>
-  </si>
-  <si>
-    <t>ENH_Bundesland</t>
-  </si>
   <si>
     <t>Baden-Württemberg</t>
   </si>
@@ -86,61 +80,67 @@
     <t>Thüringen</t>
   </si>
   <si>
-    <t>Installed_cap [kW]</t>
+    <t>Year</t>
   </si>
   <si>
-    <t>Installed_cap_below_30 [kW]</t>
+    <t>Bundesland</t>
   </si>
   <si>
-    <t>cum_installed_cap [kW]</t>
+    <t>Installed_Cap</t>
   </si>
   <si>
-    <t>cum_installed_cap_below_30 [kW]</t>
+    <t>Installed_Cap_below_30</t>
   </si>
   <si>
-    <t>feed-in [ct/kWh]</t>
+    <t>Cum_Installed_cap</t>
   </si>
   <si>
-    <t>population [cap]</t>
+    <t>Cum_Installed_Cap_below_30</t>
   </si>
   <si>
-    <t>area [km2]</t>
+    <t>module_cost</t>
   </si>
   <si>
-    <t>log_area [-]</t>
+    <t>feed-in</t>
   </si>
   <si>
-    <t>GDP [mEUR]</t>
+    <t>population</t>
   </si>
   <si>
-    <t>module_cost [2016EUR/Wp]</t>
+    <t>area</t>
   </si>
   <si>
-    <t>Installed_Cap_pa [kW/km2]</t>
+    <t>log_area</t>
   </si>
   <si>
-    <t>Cum_Installed_Cap_pa [kW/km2]</t>
+    <t>GDP</t>
   </si>
   <si>
-    <t>Installed_Cap_pc [kW/cap]</t>
+    <t>Installed_Cap_pa</t>
   </si>
   <si>
-    <t>Cum_Installed_Cap_pc [kW/cap]</t>
+    <t>Cum_Installed_Cap_pa</t>
   </si>
   <si>
-    <t>pop_density [cap/km2]</t>
+    <t>Installed_Cap_pc</t>
   </si>
   <si>
-    <t>GDP_pc [EUR/cap]</t>
+    <t>Cum_Installed_Cap_pc</t>
   </si>
   <si>
-    <t>solar_irradiance [kWh/m^2]</t>
+    <t>pop_density</t>
   </si>
   <si>
-    <t>sun_hours [hours/m^2]</t>
+    <t>GDP_pc</t>
   </si>
   <si>
-    <t>share of green party in parlament [0,1]</t>
+    <t>solar_irradiance</t>
+  </si>
+  <si>
+    <t>sun_hours</t>
+  </si>
+  <si>
+    <t>share_green_party</t>
   </si>
 </sst>
 </file>
@@ -520,40 +520,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U476"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="46" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.07421875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.69140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.07421875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.3046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.07421875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.4609375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.07421875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.3046875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.07421875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.07421875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.07421875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.53515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12" customWidth="1"/>
-    <col min="20" max="20" width="13.69140625" customWidth="1"/>
-    <col min="21" max="21" width="39.765625" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" customWidth="1"/>
+    <col min="21" max="21" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
@@ -568,22 +566,22 @@
         <v>21</v>
       </c>
       <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
         <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" t="s">
-        <v>26</v>
       </c>
       <c r="M1" t="s">
         <v>28</v>
@@ -613,12 +611,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1992</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>124.661</v>
@@ -686,12 +684,12 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1992</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>157.57400000000001</v>
@@ -759,12 +757,12 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1992</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>127.11</v>
@@ -832,12 +830,12 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1992</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>37.880000000000003</v>
@@ -905,12 +903,12 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1992</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>57.06</v>
@@ -978,12 +976,12 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1992</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>66.864000000000004</v>
@@ -1051,12 +1049,12 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1992</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>228.809</v>
@@ -1124,12 +1122,12 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1992</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>266.2</v>
@@ -1197,12 +1195,12 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1992</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>142.77000000000001</v>
@@ -1270,12 +1268,12 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1992</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>208.22800000000001</v>
@@ -1343,12 +1341,12 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1992</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>155.52799999999999</v>
@@ -1416,12 +1414,12 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1992</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>26.968</v>
@@ -1489,12 +1487,12 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1992</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>176.84100000000001</v>
@@ -1562,12 +1560,12 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1992</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>13.15</v>
@@ -1635,12 +1633,12 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1992</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>94.570000000000007</v>
@@ -1708,12 +1706,12 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1992</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>45.88</v>
@@ -1781,12 +1779,12 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1993</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>3454.99</v>
@@ -1854,12 +1852,12 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1993</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>295.66399999999999</v>
@@ -1927,12 +1925,12 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1993</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>51.71</v>
@@ -2000,12 +1998,12 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1993</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>153.738</v>
@@ -2073,12 +2071,12 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1993</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C22">
         <v>66.319999999999993</v>
@@ -2146,12 +2144,12 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1993</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23">
         <v>34.566000000000003</v>
@@ -2219,12 +2217,12 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1993</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C24">
         <v>177.47800000000001</v>
@@ -2292,12 +2290,12 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1993</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <v>130.02000000000001</v>
@@ -2365,12 +2363,12 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1993</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26">
         <v>177.38200000000001</v>
@@ -2438,12 +2436,12 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1993</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C27">
         <v>2095.7890000000002</v>
@@ -2511,12 +2509,12 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1993</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C28">
         <v>127.956</v>
@@ -2584,12 +2582,12 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1993</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C29">
         <v>30.03</v>
@@ -2657,12 +2655,12 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1993</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C30">
         <v>187.285</v>
@@ -2730,12 +2728,12 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1993</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C31">
         <v>44.811999999999998</v>
@@ -2803,12 +2801,12 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1993</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C32">
         <v>121.61799999999999</v>
@@ -2876,12 +2874,12 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1993</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C33">
         <v>133.34</v>
@@ -2949,12 +2947,12 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1994</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <v>302.78500000000003</v>
@@ -3022,12 +3020,12 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1994</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>203.53</v>
@@ -3095,12 +3093,12 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1994</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C36">
         <v>65.652000000000001</v>
@@ -3168,12 +3166,12 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1994</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C37">
         <v>246.34399999999999</v>
@@ -3241,12 +3239,12 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1994</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C38">
         <v>34.479999999999997</v>
@@ -3314,12 +3312,12 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1994</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C39">
         <v>19.670000000000002</v>
@@ -3387,12 +3385,12 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1994</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C40">
         <v>71.55</v>
@@ -3460,12 +3458,12 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1994</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C41">
         <v>103.342</v>
@@ -3533,12 +3531,12 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1994</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C42">
         <v>90.798000000000002</v>
@@ -3606,12 +3604,12 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1994</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C43">
         <v>297.11</v>
@@ -3679,12 +3677,12 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1994</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C44">
         <v>74.430000000000007</v>
@@ -3752,12 +3750,12 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1994</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C45">
         <v>7.36</v>
@@ -3825,12 +3823,12 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1994</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C46">
         <v>175.756</v>
@@ -3898,12 +3896,12 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1994</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C47">
         <v>118.13500000000001</v>
@@ -3971,12 +3969,12 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1994</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C48">
         <v>203.47</v>
@@ -4044,12 +4042,12 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1994</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C49">
         <v>265.26299999999998</v>
@@ -4117,12 +4115,12 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1995</v>
       </c>
       <c r="B50" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <v>163.32999999999998</v>
@@ -4190,12 +4188,12 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1995</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C51">
         <v>136.37</v>
@@ -4263,12 +4261,12 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1995</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C52">
         <v>85.686000000000007</v>
@@ -4336,12 +4334,12 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1995</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C53">
         <v>85.3</v>
@@ -4409,12 +4407,12 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1995</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C54">
         <v>2.8</v>
@@ -4482,12 +4480,12 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1995</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C55">
         <v>25.558</v>
@@ -4555,12 +4553,12 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1995</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C56">
         <v>28.14</v>
@@ -4628,12 +4626,12 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1995</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C57">
         <v>34.433</v>
@@ -4701,12 +4699,12 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1995</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C58">
         <v>118.98</v>
@@ -4774,12 +4772,12 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1995</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C59">
         <v>3718.8919999999998</v>
@@ -4847,12 +4845,12 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1995</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C60">
         <v>40.612000000000002</v>
@@ -4920,12 +4918,12 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1995</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C61">
         <v>7.7359999999999998</v>
@@ -4993,12 +4991,12 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1995</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C62">
         <v>22.16</v>
@@ -5066,12 +5064,12 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1995</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C63">
         <v>43.241</v>
@@ -5139,12 +5137,12 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1995</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C64">
         <v>92.1</v>
@@ -5212,12 +5210,12 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1995</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C65">
         <v>67.95</v>
@@ -5285,12 +5283,12 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1996</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C66">
         <v>910.61</v>
@@ -5358,12 +5356,12 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1996</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C67">
         <v>707.06299999999999</v>
@@ -5431,12 +5429,12 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1996</v>
       </c>
       <c r="B68" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C68">
         <v>55.49</v>
@@ -5504,12 +5502,12 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1996</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C69">
         <v>39.397999999999996</v>
@@ -5577,12 +5575,12 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1996</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C70">
         <v>11.940000000000001</v>
@@ -5650,12 +5648,12 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1996</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C71">
         <v>204.04</v>
@@ -5723,12 +5721,12 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1996</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C72">
         <v>120.59</v>
@@ -5796,12 +5794,12 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1996</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C73">
         <v>49.417000000000002</v>
@@ -5869,12 +5867,12 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1996</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C74">
         <v>209</v>
@@ -5942,12 +5940,12 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1996</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C75">
         <v>4224.4589999999998</v>
@@ -6015,12 +6013,12 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1996</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C76">
         <v>53.142000000000003</v>
@@ -6088,12 +6086,12 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1996</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C77">
         <v>49.034999999999997</v>
@@ -6161,12 +6159,12 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1996</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C78">
         <v>81.37</v>
@@ -6234,12 +6232,12 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1996</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C79">
         <v>4.5999999999999996</v>
@@ -6307,12 +6305,12 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1996</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C80">
         <v>78.290000000000006</v>
@@ -6380,12 +6378,12 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1996</v>
       </c>
       <c r="B81" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C81">
         <v>29.52</v>
@@ -6453,12 +6451,12 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1997</v>
       </c>
       <c r="B82" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C82">
         <v>629.20500000000004</v>
@@ -6526,12 +6524,12 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1997</v>
       </c>
       <c r="B83" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C83">
         <v>2310.652</v>
@@ -6599,12 +6597,12 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1997</v>
       </c>
       <c r="B84" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C84">
         <v>168.24600000000001</v>
@@ -6672,12 +6670,12 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1997</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C85">
         <v>27.64</v>
@@ -6745,12 +6743,12 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1997</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C86">
         <v>29.82</v>
@@ -6818,12 +6816,12 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1997</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C87">
         <v>625.21900000000005</v>
@@ -6891,12 +6889,12 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1997</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C88">
         <v>96.73</v>
@@ -6964,12 +6962,12 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1997</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C89">
         <v>23.044</v>
@@ -7037,12 +7035,12 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1997</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C90">
         <v>136.29</v>
@@ -7110,12 +7108,12 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1997</v>
       </c>
       <c r="B91" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C91">
         <v>3581.3809999999999</v>
@@ -7183,12 +7181,12 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1997</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C92">
         <v>213.30799999999999</v>
@@ -7256,12 +7254,12 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1997</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C93">
         <v>209.755</v>
@@ -7329,12 +7327,12 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1997</v>
       </c>
       <c r="B94" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C94">
         <v>57.854999999999997</v>
@@ -7402,12 +7400,12 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1997</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C95">
         <v>26.099999999999998</v>
@@ -7475,12 +7473,12 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1997</v>
       </c>
       <c r="B96" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C96">
         <v>174.63</v>
@@ -7548,12 +7546,12 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1997</v>
       </c>
       <c r="B97" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C97">
         <v>79.540000000000006</v>
@@ -7621,12 +7619,12 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1998</v>
       </c>
       <c r="B98" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C98">
         <v>1172.9380000000001</v>
@@ -7694,12 +7692,12 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1998</v>
       </c>
       <c r="B99" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C99">
         <v>1740.1959999999999</v>
@@ -7767,12 +7765,12 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1998</v>
       </c>
       <c r="B100" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C100">
         <v>220.589</v>
@@ -7840,12 +7838,12 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1998</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C101">
         <v>23.08</v>
@@ -7913,12 +7911,12 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1998</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C102">
         <v>16.66</v>
@@ -7986,12 +7984,12 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1998</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C103">
         <v>398.755</v>
@@ -8059,12 +8057,12 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1998</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C104">
         <v>130.47999999999999</v>
@@ -8132,12 +8130,12 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1998</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C105">
         <v>26.3</v>
@@ -8205,12 +8203,12 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1998</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C106">
         <v>167.28</v>
@@ -8278,12 +8276,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1998</v>
       </c>
       <c r="B107" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C107">
         <v>3372.8449999999998</v>
@@ -8351,12 +8349,12 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1998</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C108">
         <v>100.761</v>
@@ -8424,12 +8422,12 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1998</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C109">
         <v>121.72499999999999</v>
@@ -8497,12 +8495,12 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1998</v>
       </c>
       <c r="B110" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C110">
         <v>48.3</v>
@@ -8570,12 +8568,12 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1998</v>
       </c>
       <c r="B111" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C111">
         <v>24.34</v>
@@ -8643,12 +8641,12 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1998</v>
       </c>
       <c r="B112" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C112">
         <v>225.59399999999999</v>
@@ -8716,12 +8714,12 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1998</v>
       </c>
       <c r="B113" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C113">
         <v>54.16</v>
@@ -8789,12 +8787,12 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1999</v>
       </c>
       <c r="B114" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C114">
         <v>1831.2619999999999</v>
@@ -8862,12 +8860,12 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1999</v>
       </c>
       <c r="B115" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C115">
         <v>2844.62</v>
@@ -8935,12 +8933,12 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1999</v>
       </c>
       <c r="B116" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C116">
         <v>667.69500000000005</v>
@@ -9008,12 +9006,12 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1999</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C117">
         <v>95.022999999999996</v>
@@ -9081,12 +9079,12 @@
         <v>1.9400000000000001E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1999</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C118">
         <v>62.589999999999996</v>
@@ -9154,12 +9152,12 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1999</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C119">
         <v>301.25700000000001</v>
@@ -9227,12 +9225,12 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1999</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C120">
         <v>527.09299999999996</v>
@@ -9300,12 +9298,12 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1999</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C121">
         <v>91.864999999999995</v>
@@ -9373,12 +9371,12 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1999</v>
       </c>
       <c r="B122" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C122">
         <v>573.16200000000003</v>
@@ -9446,12 +9444,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1999</v>
       </c>
       <c r="B123" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C123">
         <v>9306.5329999999994</v>
@@ -9519,12 +9517,12 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1999</v>
       </c>
       <c r="B124" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C124">
         <v>6690.3209999999999</v>
@@ -9592,12 +9590,12 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1999</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C125">
         <v>301.52</v>
@@ -9665,12 +9663,12 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1999</v>
       </c>
       <c r="B126" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C126">
         <v>71.025999999999996</v>
@@ -9738,12 +9736,12 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1999</v>
       </c>
       <c r="B127" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C127">
         <v>12.3</v>
@@ -9811,12 +9809,12 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1999</v>
       </c>
       <c r="B128" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C128">
         <v>311.20400000000001</v>
@@ -9884,12 +9882,12 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1999</v>
       </c>
       <c r="B129" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C129">
         <v>81.564000000000007</v>
@@ -9957,12 +9955,12 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2000</v>
       </c>
       <c r="B130" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C130">
         <v>12785.022000000001</v>
@@ -10030,12 +10028,12 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>2000</v>
       </c>
       <c r="B131" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C131">
         <v>20734.864000000001</v>
@@ -10103,12 +10101,12 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2000</v>
       </c>
       <c r="B132" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C132">
         <v>961.81</v>
@@ -10176,12 +10174,12 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>2000</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C133">
         <v>265.26299999999998</v>
@@ -10249,12 +10247,12 @@
         <v>1.9400000000000001E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2000</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C134">
         <v>258.09399999999999</v>
@@ -10322,12 +10320,12 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2000</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C135">
         <v>288.96199999999999</v>
@@ -10395,12 +10393,12 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2000</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C136">
         <v>3285.4029999999998</v>
@@ -10468,12 +10466,12 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2000</v>
       </c>
       <c r="B137" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C137">
         <v>116.47199999999999</v>
@@ -10541,12 +10539,12 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>2000</v>
       </c>
       <c r="B138" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C138">
         <v>5794.4610000000002</v>
@@ -10614,12 +10612,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2000</v>
       </c>
       <c r="B139" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C139">
         <v>12136.925999999999</v>
@@ -10687,12 +10685,12 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>2000</v>
       </c>
       <c r="B140" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C140">
         <v>1422.4259999999999</v>
@@ -10760,12 +10758,12 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>2000</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C141">
         <v>611.68299999999999</v>
@@ -10833,12 +10831,12 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2000</v>
       </c>
       <c r="B142" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C142">
         <v>271.78500000000003</v>
@@ -10906,12 +10904,12 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>2000</v>
       </c>
       <c r="B143" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C143">
         <v>173.471</v>
@@ -10979,12 +10977,12 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>2000</v>
       </c>
       <c r="B144" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C144">
         <v>840.35199999999998</v>
@@ -11052,12 +11050,12 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2000</v>
       </c>
       <c r="B145" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C145">
         <v>491.07499999999999</v>
@@ -11125,12 +11123,12 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>2001</v>
       </c>
       <c r="B146" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C146">
         <v>55501.81</v>
@@ -11198,12 +11196,12 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>2001</v>
       </c>
       <c r="B147" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C147">
         <v>81276.44</v>
@@ -11271,12 +11269,12 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>2001</v>
       </c>
       <c r="B148" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C148">
         <v>1113.3219999999999</v>
@@ -11344,12 +11342,12 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>2001</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C149">
         <v>1369.3309999999999</v>
@@ -11417,12 +11415,12 @@
         <v>1.9400000000000001E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>2001</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C150">
         <v>223.8</v>
@@ -11490,12 +11488,12 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>2001</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C151">
         <v>288.51</v>
@@ -11563,12 +11561,12 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>2001</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C152">
         <v>6114.3389999999999</v>
@@ -11636,12 +11634,12 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>2001</v>
       </c>
       <c r="B153" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C153">
         <v>3021.4250000000002</v>
@@ -11709,12 +11707,12 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>2001</v>
       </c>
       <c r="B154" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C154">
         <v>22559.3</v>
@@ -11782,12 +11780,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>2001</v>
       </c>
       <c r="B155" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C155">
         <v>19456.616999999998</v>
@@ -11855,12 +11853,12 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>2001</v>
       </c>
       <c r="B156" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C156">
         <v>4144.5429999999997</v>
@@ -11928,12 +11926,12 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>2001</v>
       </c>
       <c r="B157" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C157">
         <v>1026.28</v>
@@ -12001,12 +11999,12 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>2001</v>
       </c>
       <c r="B158" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C158">
         <v>1517.8389999999999</v>
@@ -12074,12 +12072,12 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>2001</v>
       </c>
       <c r="B159" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C159">
         <v>718.46500000000003</v>
@@ -12147,12 +12145,12 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>2001</v>
       </c>
       <c r="B160" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C160">
         <v>1740.5</v>
@@ -12220,12 +12218,12 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>2001</v>
       </c>
       <c r="B161" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C161">
         <v>2186.0309999999999</v>
@@ -12293,12 +12291,12 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>2002</v>
       </c>
       <c r="B162" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C162">
         <v>86283.23</v>
@@ -12365,12 +12363,12 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>2002</v>
       </c>
       <c r="B163" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C163">
         <v>72762.998999999996</v>
@@ -12437,12 +12435,12 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>2002</v>
       </c>
       <c r="B164" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C164">
         <v>513.98</v>
@@ -12509,12 +12507,12 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>2002</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C165">
         <v>801.00900000000001</v>
@@ -12581,12 +12579,12 @@
         <v>1.9400000000000001E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>2002</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C166">
         <v>156.71799999999999</v>
@@ -12653,12 +12651,12 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>2002</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C167">
         <v>178.90899999999999</v>
@@ -12725,12 +12723,12 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>2002</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C168">
         <v>5013.4650000000001</v>
@@ -12797,12 +12795,12 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>2002</v>
       </c>
       <c r="B169" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C169">
         <v>1576.3789999999999</v>
@@ -12869,12 +12867,12 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>2002</v>
       </c>
       <c r="B170" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C170">
         <v>6297.7479999999996</v>
@@ -12941,12 +12939,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>2002</v>
       </c>
       <c r="B171" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C171">
         <v>18808.635999999999</v>
@@ -13013,12 +13011,12 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>2002</v>
       </c>
       <c r="B172" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C172">
         <v>3529.6909999999998</v>
@@ -13085,12 +13083,12 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>2002</v>
       </c>
       <c r="B173" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C173">
         <v>393.66</v>
@@ -13157,12 +13155,12 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>2002</v>
       </c>
       <c r="B174" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C174">
         <v>1073.4649999999999</v>
@@ -13229,12 +13227,12 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>2002</v>
       </c>
       <c r="B175" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C175">
         <v>3110.46</v>
@@ -13301,12 +13299,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>2002</v>
       </c>
       <c r="B176" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C176">
         <v>968.70500000000004</v>
@@ -13373,12 +13371,12 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>2002</v>
       </c>
       <c r="B177" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C177">
         <v>905.404</v>
@@ -13445,12 +13443,12 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>2003</v>
       </c>
       <c r="B178" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C178">
         <v>78529.195000000007</v>
@@ -13517,12 +13515,12 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>2003</v>
       </c>
       <c r="B179" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C179">
         <v>104922.296</v>
@@ -13589,12 +13587,12 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>2003</v>
       </c>
       <c r="B180" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C180">
         <v>250.73099999999999</v>
@@ -13661,12 +13659,12 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>2003</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C181">
         <v>1004.652</v>
@@ -13733,12 +13731,12 @@
         <v>1.9400000000000001E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>2003</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C182">
         <v>188.34399999999999</v>
@@ -13805,12 +13803,12 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>2003</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C183">
         <v>169.393</v>
@@ -13877,12 +13875,12 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>2003</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C184">
         <v>10940.499</v>
@@ -13949,12 +13947,12 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>2003</v>
       </c>
       <c r="B185" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C185">
         <v>704.97</v>
@@ -14021,12 +14019,12 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>2003</v>
       </c>
       <c r="B186" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C186">
         <v>12795.688</v>
@@ -14093,12 +14091,12 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>2003</v>
       </c>
       <c r="B187" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C187">
         <v>15291.423000000001</v>
@@ -14165,12 +14163,12 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>2003</v>
       </c>
       <c r="B188" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C188">
         <v>7131.9759999999997</v>
@@ -14237,12 +14235,12 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>2003</v>
       </c>
       <c r="B189" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C189">
         <v>300.04000000000002</v>
@@ -14309,12 +14307,12 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>2003</v>
       </c>
       <c r="B190" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C190">
         <v>860.21100000000001</v>
@@ -14381,12 +14379,12 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>2003</v>
       </c>
       <c r="B191" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C191">
         <v>593.44299999999998</v>
@@ -14453,12 +14451,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>2003</v>
       </c>
       <c r="B192" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C192">
         <v>1078.95</v>
@@ -14525,12 +14523,12 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>2003</v>
       </c>
       <c r="B193" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C193">
         <v>931.03200000000004</v>
@@ -14597,12 +14595,12 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>2004</v>
       </c>
       <c r="B194" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C194">
         <v>296364.91100000002</v>
@@ -14669,12 +14667,12 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>2004</v>
       </c>
       <c r="B195" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C195">
         <v>429213.62800000003</v>
@@ -14741,12 +14739,12 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>2004</v>
       </c>
       <c r="B196" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C196">
         <v>898.24</v>
@@ -14813,12 +14811,12 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>2004</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C197">
         <v>4877.4189999999999</v>
@@ -14885,12 +14883,12 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>2004</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C198">
         <v>302.65199999999999</v>
@@ -14957,12 +14955,12 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>2004</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C199">
         <v>467.44499999999999</v>
@@ -15029,12 +15027,12 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>2004</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C200">
         <v>66261.904999999999</v>
@@ -15101,12 +15099,12 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>2004</v>
       </c>
       <c r="B201" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C201">
         <v>4922.4220000000005</v>
@@ -15173,12 +15171,12 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>2004</v>
       </c>
       <c r="B202" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C202">
         <v>48668.506999999998</v>
@@ -15245,12 +15243,12 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>2004</v>
       </c>
       <c r="B203" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C203">
         <v>97073.570999999996</v>
@@ -15317,12 +15315,12 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>2004</v>
       </c>
       <c r="B204" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C204">
         <v>65261.639000000003</v>
@@ -15389,12 +15387,12 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>2004</v>
       </c>
       <c r="B205" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C205">
         <v>17716.957999999999</v>
@@ -15461,12 +15459,12 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>2004</v>
       </c>
       <c r="B206" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C206">
         <v>13605.707</v>
@@ -15533,12 +15531,12 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>2004</v>
       </c>
       <c r="B207" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C207">
         <v>12525.824000000001</v>
@@ -15605,12 +15603,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>2004</v>
       </c>
       <c r="B208" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C208">
         <v>18890.094000000001</v>
@@ -15677,12 +15675,12 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>2004</v>
       </c>
       <c r="B209" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C209">
         <v>4375.2650000000003</v>
@@ -15749,12 +15747,12 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>2005</v>
       </c>
       <c r="B210" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C210">
         <v>498360.78499999997</v>
@@ -15821,12 +15819,12 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>2005</v>
       </c>
       <c r="B211" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C211">
         <v>656568.97400000005</v>
@@ -15893,12 +15891,12 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>2005</v>
       </c>
       <c r="B212" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C212">
         <v>951.17399999999998</v>
@@ -15965,12 +15963,12 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>2005</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C213">
         <v>10496.347</v>
@@ -16037,12 +16035,12 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>2005</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C214">
         <v>673.08500000000004</v>
@@ -16109,12 +16107,12 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>2005</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C215">
         <v>623.71</v>
@@ -16181,12 +16179,12 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>2005</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C216">
         <v>74161.547999999995</v>
@@ -16253,12 +16251,12 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>2005</v>
       </c>
       <c r="B217" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C217">
         <v>11177.002</v>
@@ -16325,12 +16323,12 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>2005</v>
       </c>
       <c r="B218" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C218">
         <v>96249.153999999995</v>
@@ -16397,12 +16395,12 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>2005</v>
       </c>
       <c r="B219" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C219">
         <v>157779.171</v>
@@ -16469,12 +16467,12 @@
         <v>6.1800000000000001E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>2005</v>
       </c>
       <c r="B220" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C220">
         <v>76267.922000000006</v>
@@ -16541,12 +16539,12 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>2005</v>
       </c>
       <c r="B221" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C221">
         <v>12661.214</v>
@@ -16613,12 +16611,12 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>2005</v>
       </c>
       <c r="B222" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C222">
         <v>28967.985000000001</v>
@@ -16685,12 +16683,12 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>2005</v>
       </c>
       <c r="B223" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C223">
         <v>9641.1080000000002</v>
@@ -16757,12 +16755,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>2005</v>
       </c>
       <c r="B224" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C224">
         <v>33791.999000000003</v>
@@ -16829,12 +16827,12 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>2005</v>
       </c>
       <c r="B225" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C225">
         <v>19249.857</v>
@@ -16901,12 +16899,12 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>2006</v>
       </c>
       <c r="B226" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C226">
         <v>300802.88500000001</v>
@@ -16973,12 +16971,12 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>2006</v>
       </c>
       <c r="B227" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C227">
         <v>413388.30099999998</v>
@@ -17045,12 +17043,12 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>2006</v>
       </c>
       <c r="B228" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C228">
         <v>1445.365</v>
@@ -17117,12 +17115,12 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>2006</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C229">
         <v>10160.416999999999</v>
@@ -17189,12 +17187,12 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>2006</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C230">
         <v>759.58</v>
@@ -17261,12 +17259,12 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>2006</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C231">
         <v>1106.1849999999999</v>
@@ -17333,12 +17331,12 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>2006</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C232">
         <v>192442.16200000001</v>
@@ -17405,12 +17403,12 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>2006</v>
       </c>
       <c r="B233" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C233">
         <v>6500.7</v>
@@ -17477,12 +17475,12 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>2006</v>
       </c>
       <c r="B234" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C234">
         <v>97692.057000000001</v>
@@ -17549,12 +17547,12 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>2006</v>
       </c>
       <c r="B235" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C235">
         <v>146060.29800000001</v>
@@ -17621,12 +17619,12 @@
         <v>6.1800000000000001E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>2006</v>
       </c>
       <c r="B236" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C236">
         <v>74161.425000000003</v>
@@ -17693,12 +17691,12 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>2006</v>
       </c>
       <c r="B237" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C237">
         <v>8988.9339999999993</v>
@@ -17765,12 +17763,12 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>2006</v>
       </c>
       <c r="B238" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C238">
         <v>22677.066999999999</v>
@@ -17837,12 +17835,12 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>2006</v>
       </c>
       <c r="B239" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C239">
         <v>10127.15</v>
@@ -17909,12 +17907,12 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>2006</v>
       </c>
       <c r="B240" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C240">
         <v>42192.55</v>
@@ -17981,12 +17979,12 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>2006</v>
       </c>
       <c r="B241" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C241">
         <v>19051.205000000002</v>
@@ -18053,12 +18051,12 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>2007</v>
       </c>
       <c r="B242" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C242">
         <v>579100.48400000005</v>
@@ -18125,12 +18123,12 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>2007</v>
       </c>
       <c r="B243" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C243">
         <v>676340.77800000005</v>
@@ -18197,12 +18195,12 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>2007</v>
       </c>
       <c r="B244" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C244">
         <v>2093.11</v>
@@ -18269,12 +18267,12 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>2007</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C245">
         <v>23691.668000000001</v>
@@ -18341,12 +18339,12 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>2007</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C246">
         <v>919.822</v>
@@ -18413,12 +18411,12 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>2007</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C247">
         <v>842.1</v>
@@ -18485,12 +18483,12 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>2007</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C248">
         <v>139260.755</v>
@@ -18557,12 +18555,12 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>2007</v>
       </c>
       <c r="B249" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C249">
         <v>14645.491</v>
@@ -18629,12 +18627,12 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>2007</v>
       </c>
       <c r="B250" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C250">
         <v>111288.29700000001</v>
@@ -18701,12 +18699,12 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>2007</v>
       </c>
       <c r="B251" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C251">
         <v>197754.72399999999</v>
@@ -18773,12 +18771,12 @@
         <v>6.1800000000000001E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>2007</v>
       </c>
       <c r="B252" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C252">
         <v>112452.359</v>
@@ -18845,12 +18843,12 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>2007</v>
       </c>
       <c r="B253" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C253">
         <v>29847.074000000001</v>
@@ -18917,12 +18915,12 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>2007</v>
       </c>
       <c r="B254" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C254">
         <v>52939.605000000003</v>
@@ -18989,12 +18987,12 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>2007</v>
       </c>
       <c r="B255" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C255">
         <v>25923.346000000001</v>
@@ -19061,12 +19059,12 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>2007</v>
       </c>
       <c r="B256" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C256">
         <v>56123.908000000003</v>
@@ -19133,12 +19131,12 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>2007</v>
       </c>
       <c r="B257" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C257">
         <v>25843.202000000001</v>
@@ -19205,12 +19203,12 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>2008</v>
       </c>
       <c r="B258" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C258">
         <v>1187504.7290000001</v>
@@ -19277,12 +19275,12 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>2008</v>
       </c>
       <c r="B259" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C259">
         <v>1059462.96</v>
@@ -19349,12 +19347,12 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>2008</v>
       </c>
       <c r="B260" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C260">
         <v>4632.8029999999999</v>
@@ -19421,12 +19419,12 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>2008</v>
       </c>
       <c r="B261" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C261">
         <v>43742.872000000003</v>
@@ -19493,12 +19491,12 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>2008</v>
       </c>
       <c r="B262" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C262">
         <v>1281.96</v>
@@ -19565,12 +19563,12 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>2008</v>
       </c>
       <c r="B263" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C263">
         <v>1818.74</v>
@@ -19637,12 +19635,12 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>2008</v>
       </c>
       <c r="B264" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C264">
         <v>175426.7</v>
@@ -19709,12 +19707,12 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>2008</v>
       </c>
       <c r="B265" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C265">
         <v>25328.688999999998</v>
@@ -19781,12 +19779,12 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>2008</v>
       </c>
       <c r="B266" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C266">
         <v>162109.935</v>
@@ -19853,12 +19851,12 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>2008</v>
       </c>
       <c r="B267" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C267">
         <v>321138.45600000001</v>
@@ -19925,12 +19923,12 @@
         <v>6.1800000000000001E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>2008</v>
       </c>
       <c r="B268" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C268">
         <v>225089.90899999999</v>
@@ -19997,12 +19995,12 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>2008</v>
       </c>
       <c r="B269" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C269">
         <v>46941.481</v>
@@ -20069,12 +20067,12 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>2008</v>
       </c>
       <c r="B270" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C270">
         <v>107366.16</v>
@@ -20141,12 +20139,12 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>2008</v>
       </c>
       <c r="B271" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C271">
         <v>58604.095000000001</v>
@@ -20213,12 +20211,12 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>2008</v>
       </c>
       <c r="B272" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C272">
         <v>88397.356</v>
@@ -20285,12 +20283,12 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>2008</v>
       </c>
       <c r="B273" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C273">
         <v>56350.949000000001</v>
@@ -20357,12 +20355,12 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>2009</v>
       </c>
       <c r="B274" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C274">
         <v>1684929.267</v>
@@ -20429,12 +20427,12 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>2009</v>
       </c>
       <c r="B275" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C275">
         <v>2615615.923</v>
@@ -20501,12 +20499,12 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>2009</v>
       </c>
       <c r="B276" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C276">
         <v>13660.648999999999</v>
@@ -20573,12 +20571,12 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>2009</v>
       </c>
       <c r="B277" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C277">
         <v>295269.636</v>
@@ -20645,12 +20643,12 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>2009</v>
       </c>
       <c r="B278" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C278">
         <v>3149.5349999999999</v>
@@ -20717,12 +20715,12 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>2009</v>
       </c>
       <c r="B279" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C279">
         <v>4295.9949999999999</v>
@@ -20789,12 +20787,12 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>2009</v>
       </c>
       <c r="B280" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C280">
         <v>347042.48</v>
@@ -20861,12 +20859,12 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>2009</v>
       </c>
       <c r="B281" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C281">
         <v>83470.675000000003</v>
@@ -20933,12 +20931,12 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>2009</v>
       </c>
       <c r="B282" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C282">
         <v>574363.02399999998</v>
@@ -21005,12 +21003,12 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>2009</v>
       </c>
       <c r="B283" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C283">
         <v>756488.34400000004</v>
@@ -21077,12 +21075,12 @@
         <v>6.1800000000000001E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>2009</v>
       </c>
       <c r="B284" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C284">
         <v>280465.38099999999</v>
@@ -21149,12 +21147,12 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>2009</v>
       </c>
       <c r="B285" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C285">
         <v>88510.044999999998</v>
@@ -21221,12 +21219,12 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>2009</v>
       </c>
       <c r="B286" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C286">
         <v>181155.30300000001</v>
@@ -21293,12 +21291,12 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>2009</v>
       </c>
       <c r="B287" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C287">
         <v>143500.95600000001</v>
@@ -21365,12 +21363,12 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>2009</v>
       </c>
       <c r="B288" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C288">
         <v>289693.538</v>
@@ -21437,12 +21435,12 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>2009</v>
       </c>
       <c r="B289" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C289">
         <v>107613.217</v>
@@ -21509,12 +21507,12 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>2010</v>
       </c>
       <c r="B290" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C290">
         <v>2049069.2720000001</v>
@@ -21582,12 +21580,12 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>2010</v>
       </c>
       <c r="B291" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C291">
         <v>3624416.88</v>
@@ -21655,12 +21653,12 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>2010</v>
       </c>
       <c r="B292" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C292">
         <v>18479.162</v>
@@ -21728,12 +21726,12 @@
         <v>0.13100000000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>2010</v>
       </c>
       <c r="B293" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C293">
         <v>593578.41</v>
@@ -21801,12 +21799,12 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>2010</v>
       </c>
       <c r="B294" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C294">
         <v>12344.825000000001</v>
@@ -21874,12 +21872,12 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>2010</v>
       </c>
       <c r="B295" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C295">
         <v>5984.5029999999997</v>
@@ -21947,12 +21945,12 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>2010</v>
       </c>
       <c r="B296" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C296">
         <v>570831.14199999999</v>
@@ -22020,12 +22018,12 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>2010</v>
       </c>
       <c r="B297" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C297">
         <v>227499.08900000001</v>
@@ -22093,12 +22091,12 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>2010</v>
       </c>
       <c r="B298" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C298">
         <v>1564733.365</v>
@@ -22166,12 +22164,12 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>2010</v>
       </c>
       <c r="B299" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C299">
         <v>1321157.6710000001</v>
@@ -22239,12 +22237,12 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>2010</v>
       </c>
       <c r="B300" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C300">
         <v>552555.11800000002</v>
@@ -22312,12 +22310,12 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>2010</v>
       </c>
       <c r="B301" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C301">
         <v>87762.513000000006</v>
@@ -22385,12 +22383,12 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>2010</v>
       </c>
       <c r="B302" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C302">
         <v>339045.22600000002</v>
@@ -22458,12 +22456,12 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>2010</v>
       </c>
       <c r="B303" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C303">
         <v>389442.91399999999</v>
@@ -22531,12 +22529,12 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>2010</v>
       </c>
       <c r="B304" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C304">
         <v>615832.76300000004</v>
@@ -22604,12 +22602,12 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>2010</v>
       </c>
       <c r="B305" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C305">
         <v>215904.68900000001</v>
@@ -22677,12 +22675,12 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>2011</v>
       </c>
       <c r="B306" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C306">
         <v>2171872.8130000001</v>
@@ -22749,12 +22747,12 @@
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>2011</v>
       </c>
       <c r="B307" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C307">
         <v>2925577.736</v>
@@ -22821,12 +22819,12 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>2011</v>
       </c>
       <c r="B308" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C308">
         <v>20633.393</v>
@@ -22893,12 +22891,12 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>2011</v>
       </c>
       <c r="B309" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C309">
         <v>1356260.1680000001</v>
@@ -22965,12 +22963,12 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>2011</v>
       </c>
       <c r="B310" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C310">
         <v>32489.365000000002</v>
@@ -23037,12 +23035,12 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>2011</v>
       </c>
       <c r="B311" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C311">
         <v>14960.227000000001</v>
@@ -23109,12 +23107,12 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>2011</v>
       </c>
       <c r="B312" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C312">
         <v>512209.005</v>
@@ -23181,12 +23179,12 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>2011</v>
       </c>
       <c r="B313" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C313">
         <v>413266.67800000001</v>
@@ -23253,12 +23251,12 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>2011</v>
       </c>
       <c r="B314" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C314">
         <v>1243979.2209999999</v>
@@ -23325,12 +23323,12 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>2011</v>
       </c>
       <c r="B315" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C315">
         <v>1567017.41</v>
@@ -23397,12 +23395,12 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>2011</v>
       </c>
       <c r="B316" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C316">
         <v>511618.788</v>
@@ -23469,12 +23467,12 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>2011</v>
       </c>
       <c r="B317" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C317">
         <v>113219.34699999999</v>
@@ -23541,12 +23539,12 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>2011</v>
       </c>
       <c r="B318" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C318">
         <v>530507.63399999996</v>
@@ -23613,12 +23611,12 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>2011</v>
       </c>
       <c r="B319" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C319">
         <v>626530.84100000001</v>
@@ -23685,12 +23683,12 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>2011</v>
       </c>
       <c r="B320" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C320">
         <v>559403.02399999998</v>
@@ -23757,12 +23755,12 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>2011</v>
       </c>
       <c r="B321" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C321">
         <v>348311.435</v>
@@ -23829,12 +23827,12 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>2012</v>
       </c>
       <c r="B322" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C322">
         <v>1223151.784</v>
@@ -23902,12 +23900,12 @@
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>2012</v>
       </c>
       <c r="B323" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C323">
         <v>2110365.9619999998</v>
@@ -23975,12 +23973,12 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>2012</v>
       </c>
       <c r="B324" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C324">
         <v>16003.134</v>
@@ -24048,12 +24046,12 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>2012</v>
       </c>
       <c r="B325" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C325">
         <v>1477141.0490000001</v>
@@ -24121,12 +24119,12 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>2012</v>
       </c>
       <c r="B326" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C326">
         <v>8100.26</v>
@@ -24194,12 +24192,12 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>2012</v>
       </c>
       <c r="B327" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C327">
         <v>6995.6779999999999</v>
@@ -24267,12 +24265,12 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>2012</v>
       </c>
       <c r="B328" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C328">
         <v>472024.32199999999</v>
@@ -24340,12 +24338,12 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>2012</v>
       </c>
       <c r="B329" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C329">
         <v>628995.31999999995</v>
@@ -24413,12 +24411,12 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>2012</v>
       </c>
       <c r="B330" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C330">
         <v>1008933.615</v>
@@ -24486,12 +24484,12 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>2012</v>
       </c>
       <c r="B331" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C331">
         <v>1019834.299</v>
@@ -24559,12 +24557,12 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>2012</v>
       </c>
       <c r="B332" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C332">
         <v>468377.01299999998</v>
@@ -24632,12 +24630,12 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>2012</v>
       </c>
       <c r="B333" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C333">
         <v>123938.19100000001</v>
@@ -24705,12 +24703,12 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>2012</v>
       </c>
       <c r="B334" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C334">
         <v>621908.39899999998</v>
@@ -24778,12 +24776,12 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>2012</v>
       </c>
       <c r="B335" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C335">
         <v>701070.07499999995</v>
@@ -24851,12 +24849,12 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>2012</v>
       </c>
       <c r="B336" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C336">
         <v>488087.89</v>
@@ -24924,12 +24922,12 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>2012</v>
       </c>
       <c r="B337" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C337">
         <v>490873.79</v>
@@ -24997,12 +24995,12 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>2013</v>
       </c>
       <c r="B338" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C338">
         <v>909231.30700000003</v>
@@ -25070,12 +25068,12 @@
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>2013</v>
       </c>
       <c r="B339" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C339">
         <v>1231303.787</v>
@@ -25143,12 +25141,12 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>2013</v>
       </c>
       <c r="B340" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C340">
         <v>6601.9120000000003</v>
@@ -25216,12 +25214,12 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>2013</v>
       </c>
       <c r="B341" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C341">
         <v>257146.38399999999</v>
@@ -25289,12 +25287,12 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>2013</v>
       </c>
       <c r="B342" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C342">
         <v>3996.0830000000001</v>
@@ -25362,12 +25360,12 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>2013</v>
       </c>
       <c r="B343" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C343">
         <v>5227.0349999999999</v>
@@ -25435,12 +25433,12 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>2013</v>
       </c>
       <c r="B344" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C344">
         <v>255078.39600000001</v>
@@ -25508,12 +25506,12 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>2013</v>
       </c>
       <c r="B345" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C345">
         <v>336696.24099999998</v>
@@ -25581,12 +25579,12 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>2013</v>
       </c>
       <c r="B346" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C346">
         <v>426825.95</v>
@@ -25654,12 +25652,12 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>2013</v>
       </c>
       <c r="B347" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C347">
         <v>542125.13699999999</v>
@@ -25727,12 +25725,12 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>2013</v>
       </c>
       <c r="B348" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C348">
         <v>261141.56099999999</v>
@@ -25800,12 +25798,12 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>2013</v>
       </c>
       <c r="B349" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C349">
         <v>93362.595000000001</v>
@@ -25873,12 +25871,12 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>2013</v>
       </c>
       <c r="B350" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C350">
         <v>214132.554</v>
@@ -25946,12 +25944,12 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>2013</v>
       </c>
       <c r="B351" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C351">
         <v>295161.31900000002</v>
@@ -26019,12 +26017,12 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>2013</v>
       </c>
       <c r="B352" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C352">
         <v>104312.092</v>
@@ -26092,12 +26090,12 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>2013</v>
       </c>
       <c r="B353" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C353">
         <v>198580.38699999999</v>
@@ -26165,12 +26163,12 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>2014</v>
       </c>
       <c r="B354" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C354">
         <v>682963.67799999996</v>
@@ -26238,12 +26236,12 @@
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>2014</v>
       </c>
       <c r="B355" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C355">
         <v>606894.82799999998</v>
@@ -26311,12 +26309,12 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>2014</v>
       </c>
       <c r="B356" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C356">
         <v>16490.519</v>
@@ -26384,12 +26382,12 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>2014</v>
       </c>
       <c r="B357" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C357">
         <v>191249.03599999999</v>
@@ -26457,12 +26455,12 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>2014</v>
       </c>
       <c r="B358" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C358">
         <v>4920.87</v>
@@ -26530,12 +26528,12 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>2014</v>
       </c>
       <c r="B359" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C359">
         <v>7328.6009999999997</v>
@@ -26603,12 +26601,12 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>2014</v>
       </c>
       <c r="B360" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C360">
         <v>130379.08100000001</v>
@@ -26676,12 +26674,12 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>2014</v>
       </c>
       <c r="B361" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C361">
         <v>159465.41200000001</v>
@@ -26749,12 +26747,12 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>2014</v>
       </c>
       <c r="B362" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C362">
         <v>214733.299</v>
@@ -26822,12 +26820,12 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>2014</v>
       </c>
       <c r="B363" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C363">
         <v>309147.46799999999</v>
@@ -26895,12 +26893,12 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>2014</v>
       </c>
       <c r="B364" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C364">
         <v>161646.82199999999</v>
@@ -26968,12 +26966,12 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>2014</v>
       </c>
       <c r="B365" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C365">
         <v>46496.603999999999</v>
@@ -27041,12 +27039,12 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>2014</v>
       </c>
       <c r="B366" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C366">
         <v>93998.338000000003</v>
@@ -27114,12 +27112,12 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>2014</v>
       </c>
       <c r="B367" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C367">
         <v>238928.274</v>
@@ -27187,12 +27185,12 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>2014</v>
       </c>
       <c r="B368" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C368">
         <v>60654.656000000003</v>
@@ -27260,12 +27258,12 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="369" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>2014</v>
       </c>
       <c r="B369" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C369">
         <v>115940.49400000001</v>
@@ -27333,12 +27331,12 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="370" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>2015</v>
       </c>
       <c r="B370" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C370">
         <v>291587.66700000002</v>
@@ -27406,12 +27404,12 @@
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="371" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>2015</v>
       </c>
       <c r="B371" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C371">
         <v>446145.92099999997</v>
@@ -27479,12 +27477,12 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>2015</v>
       </c>
       <c r="B372" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C372">
         <v>7749.2510000000002</v>
@@ -27552,12 +27550,12 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="373" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>2015</v>
       </c>
       <c r="B373" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C373">
         <v>215698.196</v>
@@ -27625,12 +27623,12 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>2015</v>
       </c>
       <c r="B374" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C374">
         <v>2788.72</v>
@@ -27698,12 +27696,12 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="375" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>2015</v>
       </c>
       <c r="B375" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C375">
         <v>1927.116</v>
@@ -27771,12 +27769,12 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="376" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>2015</v>
       </c>
       <c r="B376" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C376">
         <v>84560.187999999995</v>
@@ -27844,12 +27842,12 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="377" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>2015</v>
       </c>
       <c r="B377" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C377">
         <v>142716.07800000001</v>
@@ -27917,12 +27915,12 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="378" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>2015</v>
       </c>
       <c r="B378" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C378">
         <v>128771.70699999999</v>
@@ -27990,12 +27988,12 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="379" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>2015</v>
       </c>
       <c r="B379" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C379">
         <v>248354.83</v>
@@ -28063,12 +28061,12 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="380" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>2015</v>
       </c>
       <c r="B380" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C380">
         <v>116722.867</v>
@@ -28136,12 +28134,12 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="381" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>2015</v>
       </c>
       <c r="B381" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C381">
         <v>13001.582</v>
@@ -28209,12 +28207,12 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="382" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>2015</v>
       </c>
       <c r="B382" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C382">
         <v>156182.02600000001</v>
@@ -28282,12 +28280,12 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="383" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>2015</v>
       </c>
       <c r="B383" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C383">
         <v>220243.94</v>
@@ -28355,12 +28353,12 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>2015</v>
       </c>
       <c r="B384" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C384">
         <v>39499.720999999998</v>
@@ -28428,12 +28426,12 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="385" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>2015</v>
       </c>
       <c r="B385" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C385">
         <v>128450.44500000001</v>
@@ -28501,12 +28499,12 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="386" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>2016</v>
       </c>
       <c r="B386" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C386">
         <v>290515.23099999997</v>
@@ -28573,12 +28571,12 @@
         <v>0.30299999999999999</v>
       </c>
     </row>
-    <row r="387" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>2016</v>
       </c>
       <c r="B387" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C387">
         <v>398286.49400000001</v>
@@ -28645,12 +28643,12 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="388" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>2016</v>
       </c>
       <c r="B388" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C388">
         <v>6998.3220000000001</v>
@@ -28717,12 +28715,12 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="389" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>2016</v>
       </c>
       <c r="B389" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C389">
         <v>291701.21299999999</v>
@@ -28789,12 +28787,12 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="390" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>2016</v>
       </c>
       <c r="B390" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C390">
         <v>1395.57</v>
@@ -28861,12 +28859,12 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="391" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>2016</v>
       </c>
       <c r="B391" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C391">
         <v>4158.5349999999999</v>
@@ -28933,12 +28931,12 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="392" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>2016</v>
       </c>
       <c r="B392" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C392">
         <v>71393.294999999998</v>
@@ -29005,12 +29003,12 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="393" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>2016</v>
       </c>
       <c r="B393" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C393">
         <v>197741.70800000001</v>
@@ -29077,12 +29075,12 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="394" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>2016</v>
       </c>
       <c r="B394" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C394">
         <v>116996.031</v>
@@ -29149,12 +29147,12 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="395" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>2016</v>
       </c>
       <c r="B395" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C395">
         <v>220178.52499999999</v>
@@ -29221,12 +29219,12 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="396" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>2016</v>
       </c>
       <c r="B396" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C396">
         <v>148031.36900000001</v>
@@ -29293,12 +29291,12 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="397" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>2016</v>
       </c>
       <c r="B397" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C397">
         <v>16908.422999999999</v>
@@ -29365,12 +29363,12 @@
         <v>5.04E-2</v>
       </c>
     </row>
-    <row r="398" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>2016</v>
       </c>
       <c r="B398" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C398">
         <v>96808.633000000002</v>
@@ -29437,12 +29435,12 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="399" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>2016</v>
       </c>
       <c r="B399" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C399">
         <v>284074.69099999999</v>
@@ -29509,12 +29507,12 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="400" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>2016</v>
       </c>
       <c r="B400" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C400">
         <v>46350.631000000001</v>
@@ -29581,12 +29579,12 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="401" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>2016</v>
       </c>
       <c r="B401" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C401">
         <v>136848.26199999999</v>
@@ -29653,12 +29651,12 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="402" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>2017</v>
       </c>
       <c r="B402" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C402">
         <v>516289.40899999999</v>
@@ -29726,12 +29724,12 @@
         <v>0.30299999999999999</v>
       </c>
     </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>2017</v>
       </c>
       <c r="B403" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C403">
         <v>710808.13399999996</v>
@@ -29799,12 +29797,12 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>2017</v>
       </c>
       <c r="B404" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C404">
         <v>19022.552</v>
@@ -29872,12 +29870,12 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="405" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>2017</v>
       </c>
       <c r="B405" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C405">
         <v>290731.48499999999</v>
@@ -29945,12 +29943,12 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="406" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>2017</v>
       </c>
       <c r="B406" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C406">
         <v>1518.2249999999999</v>
@@ -30018,12 +30016,12 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="407" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>2017</v>
       </c>
       <c r="B407" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C407">
         <v>4626.8500000000004</v>
@@ -30091,12 +30089,12 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="408" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>2017</v>
       </c>
       <c r="B408" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C408">
         <v>119657.005</v>
@@ -30164,12 +30162,12 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="409" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>2017</v>
       </c>
       <c r="B409" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C409">
         <v>214467.35699999999</v>
@@ -30237,12 +30235,12 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="410" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>2017</v>
       </c>
       <c r="B410" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C410">
         <v>163662.10399999999</v>
@@ -30310,12 +30308,12 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="411" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>2017</v>
       </c>
       <c r="B411" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C411">
         <v>343100.85499999998</v>
@@ -30383,12 +30381,12 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="412" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>2017</v>
       </c>
       <c r="B412" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C412">
         <v>123734.65300000001</v>
@@ -30456,12 +30454,12 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="413" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>2017</v>
       </c>
       <c r="B413" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C413">
         <v>43387.158000000003</v>
@@ -30529,12 +30527,12 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="414" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>2017</v>
       </c>
       <c r="B414" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C414">
         <v>100303.755</v>
@@ -30602,12 +30600,12 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="415" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>2017</v>
       </c>
       <c r="B415" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C415">
         <v>175321.807</v>
@@ -30675,12 +30673,12 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="416" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>2017</v>
       </c>
       <c r="B416" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C416">
         <v>54643.074999999997</v>
@@ -30748,12 +30746,12 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="417" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>2017</v>
       </c>
       <c r="B417" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C417">
         <v>78278.777000000002</v>
@@ -30821,12 +30819,12 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="418" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>2018</v>
       </c>
       <c r="B418" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C418">
         <v>572999.75699999998</v>
@@ -30894,12 +30892,12 @@
         <v>0.30299999999999999</v>
       </c>
     </row>
-    <row r="419" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>2018</v>
       </c>
       <c r="B419" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C419">
         <v>1186922.9890000001</v>
@@ -30967,12 +30965,12 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="420" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>2018</v>
       </c>
       <c r="B420" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C420">
         <v>13750.923000000001</v>
@@ -31040,12 +31038,12 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="421" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>2018</v>
       </c>
       <c r="B421" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C421">
         <v>530138.61800000002</v>
@@ -31113,12 +31111,12 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="422" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>2018</v>
       </c>
       <c r="B422" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C422">
         <v>2929.2579999999998</v>
@@ -31186,12 +31184,12 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="423" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>2018</v>
       </c>
       <c r="B423" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C423">
         <v>6536.7510000000002</v>
@@ -31259,12 +31257,12 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="424" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>2018</v>
       </c>
       <c r="B424" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C424">
         <v>181116.484</v>
@@ -31332,12 +31330,12 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="425" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>2018</v>
       </c>
       <c r="B425" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C425">
         <v>353089.52600000001</v>
@@ -31405,12 +31403,12 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>2018</v>
       </c>
       <c r="B426" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C426">
         <v>300594.07299999997</v>
@@ -31478,12 +31476,12 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="427" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>2018</v>
       </c>
       <c r="B427" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C427">
         <v>544077.65500000003</v>
@@ -31551,12 +31549,12 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="428" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>2018</v>
       </c>
       <c r="B428" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C428">
         <v>178152.77499999999</v>
@@ -31624,12 +31622,12 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="429" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>2018</v>
       </c>
       <c r="B429" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C429">
         <v>22377.434000000001</v>
@@ -31697,12 +31695,12 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="430" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>2018</v>
       </c>
       <c r="B430" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C430">
         <v>344598.68900000001</v>
@@ -31770,12 +31768,12 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="431" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>2018</v>
       </c>
       <c r="B431" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C431">
         <v>432181.78600000002</v>
@@ -31843,12 +31841,12 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="432" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>2018</v>
       </c>
       <c r="B432" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C432">
         <v>164009.125</v>
@@ -31916,12 +31914,12 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="433" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>2018</v>
       </c>
       <c r="B433" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C433">
         <v>240882.755</v>
@@ -31989,12 +31987,12 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="434" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>2019</v>
       </c>
       <c r="B434" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C434">
         <v>437046.99900000001</v>
@@ -32062,12 +32060,12 @@
         <v>0.30299999999999999</v>
       </c>
     </row>
-    <row r="435" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>2019</v>
       </c>
       <c r="B435" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C435">
         <v>943119.77099999995</v>
@@ -32135,12 +32133,12 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="436" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>2019</v>
       </c>
       <c r="B436" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C436">
         <v>9010.6129999999994</v>
@@ -32208,12 +32206,12 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="437" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>2019</v>
       </c>
       <c r="B437" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C437">
         <v>299675.74099999998</v>
@@ -32281,12 +32279,12 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="438" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>2019</v>
       </c>
       <c r="B438" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C438">
         <v>3282.1849999999999</v>
@@ -32354,12 +32352,12 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="439" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>2019</v>
       </c>
       <c r="B439" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C439">
         <v>4505.3450000000003</v>
@@ -32427,12 +32425,12 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="440" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>2019</v>
       </c>
       <c r="B440" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C440">
         <v>272261.59899999999</v>
@@ -32500,12 +32498,12 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="441" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>2019</v>
       </c>
       <c r="B441" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C441">
         <v>235093.076</v>
@@ -32573,12 +32571,12 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="442" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>2019</v>
       </c>
       <c r="B442" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C442">
         <v>341923.00599999999</v>
@@ -32646,12 +32644,12 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="443" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>2019</v>
       </c>
       <c r="B443" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C443">
         <v>474008.22200000001</v>
@@ -32719,12 +32717,12 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="444" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>2019</v>
       </c>
       <c r="B444" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C444">
         <v>132818.83300000001</v>
@@ -32792,12 +32790,12 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="445" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>2019</v>
       </c>
       <c r="B445" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C445">
         <v>19777.684000000001</v>
@@ -32865,12 +32863,12 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="446" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>2019</v>
       </c>
       <c r="B446" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C446">
         <v>235403.22500000001</v>
@@ -32938,12 +32936,12 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="447" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>2019</v>
       </c>
       <c r="B447" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C447">
         <v>331173.52399999998</v>
@@ -33011,12 +33009,12 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="448" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>2019</v>
       </c>
       <c r="B448" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C448">
         <v>114727.16100000001</v>
@@ -33084,12 +33082,12 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="449" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>2019</v>
       </c>
       <c r="B449" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C449">
         <v>192679.01699999999</v>
@@ -33157,12 +33155,12 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="450" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>2020</v>
       </c>
       <c r="B450" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C450">
         <v>63787.03</v>
@@ -33201,12 +33199,12 @@
         <v>0.30299999999999999</v>
       </c>
     </row>
-    <row r="451" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>2020</v>
       </c>
       <c r="B451" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C451">
         <v>231775.413</v>
@@ -33245,12 +33243,12 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="452" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>2020</v>
       </c>
       <c r="B452" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C452">
         <v>1405.796</v>
@@ -33289,12 +33287,12 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="453" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>2020</v>
       </c>
       <c r="B453" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C453">
         <v>48293.3</v>
@@ -33333,12 +33331,12 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="454" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>2020</v>
       </c>
       <c r="B454" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C454">
         <v>317.63499999999999</v>
@@ -33377,12 +33375,12 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="455" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>2020</v>
       </c>
       <c r="B455" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C455">
         <v>314.255</v>
@@ -33421,12 +33419,12 @@
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="456" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>2020</v>
       </c>
       <c r="B456" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C456">
         <v>23990.652999999998</v>
@@ -33465,12 +33463,12 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="457" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>2020</v>
       </c>
       <c r="B457" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C457">
         <v>18640.146000000001</v>
@@ -33509,12 +33507,12 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="458" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>2020</v>
       </c>
       <c r="B458" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C458">
         <v>53024.330999999998</v>
@@ -33553,12 +33551,12 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="459" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>2020</v>
       </c>
       <c r="B459" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C459">
         <v>66223.95</v>
@@ -33597,12 +33595,12 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="460" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>2020</v>
       </c>
       <c r="B460" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C460">
         <v>19148.501</v>
@@ -33641,12 +33639,12 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="461" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>2020</v>
       </c>
       <c r="B461" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C461">
         <v>2820.317</v>
@@ -33685,12 +33683,12 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="462" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>2020</v>
       </c>
       <c r="B462" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C462">
         <v>27861.796999999999</v>
@@ -33729,12 +33727,12 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="463" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>2020</v>
       </c>
       <c r="B463" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C463">
         <v>30197.040000000001</v>
@@ -33773,12 +33771,12 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="464" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>2020</v>
       </c>
       <c r="B464" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C464">
         <v>7108.95</v>
@@ -33817,12 +33815,12 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="465" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>2020</v>
       </c>
       <c r="B465" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C465">
         <v>34637.404999999999</v>
@@ -33861,37 +33859,37 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="466" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L466" s="3"/>
     </row>
-    <row r="467" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L467" s="3"/>
     </row>
-    <row r="468" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L468" s="3"/>
     </row>
-    <row r="469" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L469" s="3"/>
     </row>
-    <row r="470" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L470" s="3"/>
     </row>
-    <row r="471" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L471" s="3"/>
     </row>
-    <row r="472" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L472" s="3"/>
     </row>
-    <row r="473" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L473" s="3"/>
     </row>
-    <row r="474" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L474" s="3"/>
     </row>
-    <row r="475" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L475" s="3"/>
     </row>
-    <row r="476" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:21" x14ac:dyDescent="0.3">
       <c r="L476" s="3"/>
     </row>
   </sheetData>

--- a/course_project/data/df_pv_data_germany.xlsx
+++ b/course_project/data/df_pv_data_germany.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi Eckmann\Desktop\ETH Studium\MASTERSTUDIUM\2. Semester\Big Data for Public Policy\big_data_policy_2020\course_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8390D798-53A3-4E84-811A-3270020FB925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37760D3B-C081-4AAF-8C1B-A6E2DCD9979D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$476</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -520,7 +523,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U476"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T451" sqref="T451"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -22888,7 +22893,7 @@
         <v>1590</v>
       </c>
       <c r="U308">
-        <v>17.600000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="309" spans="1:21" x14ac:dyDescent="0.3">
@@ -24043,7 +24048,7 @@
         <v>1590</v>
       </c>
       <c r="U324">
-        <v>17.600000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="325" spans="1:21" x14ac:dyDescent="0.3">
@@ -25211,7 +25216,7 @@
         <v>1590</v>
       </c>
       <c r="U340">
-        <v>17.600000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="341" spans="1:21" x14ac:dyDescent="0.3">
@@ -26379,7 +26384,7 @@
         <v>1590</v>
       </c>
       <c r="U356">
-        <v>17.600000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="357" spans="1:21" x14ac:dyDescent="0.3">
@@ -27547,7 +27552,7 @@
         <v>1590</v>
       </c>
       <c r="U372">
-        <v>17.600000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="373" spans="1:21" x14ac:dyDescent="0.3">
@@ -28712,7 +28717,7 @@
         <v>1590</v>
       </c>
       <c r="U388">
-        <v>17.600000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="389" spans="1:21" x14ac:dyDescent="0.3">
@@ -30962,7 +30967,7 @@
         <v>1805</v>
       </c>
       <c r="U419">
-        <v>17.600000000000001</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="420" spans="1:21" x14ac:dyDescent="0.3">
@@ -32130,7 +32135,7 @@
         <v>1805</v>
       </c>
       <c r="U435">
-        <v>17.600000000000001</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="436" spans="1:21" x14ac:dyDescent="0.3">
@@ -33240,7 +33245,7 @@
         <v>1805</v>
       </c>
       <c r="U451">
-        <v>17.600000000000001</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="452" spans="1:21" x14ac:dyDescent="0.3">
@@ -33893,6 +33898,7 @@
       <c r="L476" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U476" xr:uid="{75299AE7-023E-401C-8CE3-3E0A30A6E256}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/course_project/data/df_pv_data_germany.xlsx
+++ b/course_project/data/df_pv_data_germany.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi Eckmann\Desktop\ETH Studium\MASTERSTUDIUM\2. Semester\Big Data for Public Policy\big_data_policy_2020\course_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305B5E24-5056-420A-B887-E25ADC651F5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914ABF7E-B39F-4E41-A8E6-A01D5FC61C6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$476</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -527,7 +530,7 @@
   <dimension ref="A1:W476"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25360,7 +25363,7 @@
         <v>1590</v>
       </c>
       <c r="W308">
-        <v>17.600000000000001</v>
+        <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="309" spans="1:23" x14ac:dyDescent="0.3">
@@ -26643,7 +26646,7 @@
         <v>1590</v>
       </c>
       <c r="W324">
-        <v>17.600000000000001</v>
+        <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="325" spans="1:23" x14ac:dyDescent="0.3">
@@ -27939,7 +27942,7 @@
         <v>1590</v>
       </c>
       <c r="W340">
-        <v>17.600000000000001</v>
+        <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="341" spans="1:23" x14ac:dyDescent="0.3">
@@ -29235,7 +29238,7 @@
         <v>1590</v>
       </c>
       <c r="W356">
-        <v>17.600000000000001</v>
+        <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="357" spans="1:23" x14ac:dyDescent="0.3">
@@ -30531,7 +30534,7 @@
         <v>1590</v>
       </c>
       <c r="W372">
-        <v>17.600000000000001</v>
+        <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="373" spans="1:23" x14ac:dyDescent="0.3">
@@ -31824,7 +31827,7 @@
         <v>1590</v>
       </c>
       <c r="W388">
-        <v>17.600000000000001</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="389" spans="1:23" x14ac:dyDescent="0.3">
@@ -34322,7 +34325,7 @@
         <v>1805</v>
       </c>
       <c r="W419">
-        <v>17.600000000000001</v>
+        <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="420" spans="1:23" x14ac:dyDescent="0.3">
@@ -35618,7 +35621,7 @@
         <v>1805</v>
       </c>
       <c r="W435">
-        <v>17.600000000000001</v>
+        <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="436" spans="1:23" x14ac:dyDescent="0.3">
@@ -36840,7 +36843,7 @@
         <v>1805</v>
       </c>
       <c r="W451">
-        <v>17.600000000000001</v>
+        <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="452" spans="1:23" x14ac:dyDescent="0.3">

--- a/course_project/data/df_pv_data_germany.xlsx
+++ b/course_project/data/df_pv_data_germany.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi Eckmann\Desktop\ETH Studium\MASTERSTUDIUM\2. Semester\Big Data for Public Policy\big_data_policy_2020\course_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914ABF7E-B39F-4E41-A8E6-A01D5FC61C6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F16F056-3E58-42FD-B198-F638FD21D6A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="41">
   <si>
     <t>Baden-Württemberg</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>Installed_Cap_pc</t>
+  </si>
+  <si>
+    <t>share_RE</t>
+  </si>
+  <si>
+    <t>share_PV</t>
   </si>
 </sst>
 </file>
@@ -527,39 +533,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W476"/>
+  <dimension ref="A1:Y476"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="40" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.109375" customWidth="1"/>
-    <col min="19" max="19" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -629,8 +636,14 @@
       <c r="W1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1992</v>
       </c>
@@ -711,7 +724,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1992</v>
       </c>
@@ -792,7 +805,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1992</v>
       </c>
@@ -873,7 +886,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1992</v>
       </c>
@@ -954,7 +967,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1992</v>
       </c>
@@ -1035,7 +1048,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1992</v>
       </c>
@@ -1116,7 +1129,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1992</v>
       </c>
@@ -1197,7 +1210,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1992</v>
       </c>
@@ -1278,7 +1291,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1992</v>
       </c>
@@ -1359,7 +1372,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1992</v>
       </c>
@@ -1440,7 +1453,7 @@
         <v>5.0500000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1992</v>
       </c>
@@ -1521,7 +1534,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1992</v>
       </c>
@@ -1602,7 +1615,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1992</v>
       </c>
@@ -1683,7 +1696,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1992</v>
       </c>
@@ -1764,7 +1777,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1992</v>
       </c>
@@ -13509,7 +13522,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>2001</v>
       </c>
@@ -13590,7 +13603,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>2002</v>
       </c>
@@ -13669,8 +13682,14 @@
       <c r="W162">
         <v>7.6999999999999999E-2</v>
       </c>
-    </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X162">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="Y162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>2002</v>
       </c>
@@ -13749,8 +13768,14 @@
       <c r="W163">
         <v>5.7000000000000002E-2</v>
       </c>
-    </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X163">
+        <v>0.20199999999999999</v>
+      </c>
+      <c r="Y163">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>2002</v>
       </c>
@@ -13830,7 +13855,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>2002</v>
       </c>
@@ -13910,7 +13935,7 @@
         <v>1.9400000000000001E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>2002</v>
       </c>
@@ -13989,8 +14014,14 @@
       <c r="W166">
         <v>8.8999999999999996E-2</v>
       </c>
-    </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X166">
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="Y166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>2002</v>
       </c>
@@ -14069,8 +14100,14 @@
       <c r="W167">
         <v>8.5000000000000006E-2</v>
       </c>
-    </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X167">
+        <v>5.9000000000000004E-2</v>
+      </c>
+      <c r="Y167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>2002</v>
       </c>
@@ -14149,8 +14186,14 @@
       <c r="W168">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X168">
+        <v>3.6000000000000004E-2</v>
+      </c>
+      <c r="Y168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>2002</v>
       </c>
@@ -14230,7 +14273,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>2002</v>
       </c>
@@ -14310,7 +14353,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>2002</v>
       </c>
@@ -14389,8 +14432,14 @@
       <c r="W171">
         <v>7.0999999999999994E-2</v>
       </c>
-    </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X171">
+        <v>0.03</v>
+      </c>
+      <c r="Y171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>2002</v>
       </c>
@@ -14470,7 +14519,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>2002</v>
       </c>
@@ -14550,7 +14599,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>2002</v>
       </c>
@@ -14629,8 +14678,14 @@
       <c r="W174">
         <v>2.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X174">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Y174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>2002</v>
       </c>
@@ -14709,8 +14764,14 @@
       <c r="W175">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X175">
+        <v>0.109</v>
+      </c>
+      <c r="Y175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>2002</v>
       </c>
@@ -14789,8 +14850,14 @@
       <c r="W176">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X176">
+        <v>0.107</v>
+      </c>
+      <c r="Y176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>2002</v>
       </c>
@@ -14869,8 +14936,14 @@
       <c r="W177">
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X177">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="Y177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>2003</v>
       </c>
@@ -14949,8 +15022,14 @@
       <c r="W178">
         <v>7.6999999999999999E-2</v>
       </c>
-    </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X178">
+        <v>7.400000000000001E-2</v>
+      </c>
+      <c r="Y178">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>2003</v>
       </c>
@@ -15029,8 +15108,14 @@
       <c r="W179">
         <v>7.6999999999999999E-2</v>
       </c>
-    </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X179">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="Y179">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>2003</v>
       </c>
@@ -15109,8 +15194,14 @@
       <c r="W180">
         <v>9.0999999999999998E-2</v>
       </c>
-    </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X180">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="Y180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>2003</v>
       </c>
@@ -15189,8 +15280,14 @@
       <c r="W181">
         <v>1.9400000000000001E-2</v>
       </c>
-    </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X181">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Y181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>2003</v>
       </c>
@@ -15269,8 +15366,14 @@
       <c r="W182">
         <v>0.128</v>
       </c>
-    </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X182">
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="Y182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>2003</v>
       </c>
@@ -15349,8 +15452,14 @@
       <c r="W183">
         <v>8.5000000000000006E-2</v>
       </c>
-    </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X183">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="Y183">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>2003</v>
       </c>
@@ -15429,8 +15538,14 @@
       <c r="W184">
         <v>0.10100000000000001</v>
       </c>
-    </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X184">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="Y184">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>2003</v>
       </c>
@@ -15509,8 +15624,14 @@
       <c r="W185">
         <v>2.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X185">
+        <v>0.252</v>
+      </c>
+      <c r="Y185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>2003</v>
       </c>
@@ -15589,8 +15710,14 @@
       <c r="W186">
         <v>7.5999999999999998E-2</v>
       </c>
-    </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X186">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="Y186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>2003</v>
       </c>
@@ -15669,8 +15796,14 @@
       <c r="W187">
         <v>7.0999999999999994E-2</v>
       </c>
-    </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X187">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="Y187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>2003</v>
       </c>
@@ -15749,8 +15882,11 @@
       <c r="W188">
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X188">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>2003</v>
       </c>
@@ -15829,8 +15965,14 @@
       <c r="W189">
         <v>3.2000000000000001E-2</v>
       </c>
-    </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X189">
+        <v>2.7000000000000003E-2</v>
+      </c>
+      <c r="Y189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>2003</v>
       </c>
@@ -15909,8 +16051,14 @@
       <c r="W190">
         <v>2.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X190">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Y190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>2003</v>
       </c>
@@ -15989,8 +16137,14 @@
       <c r="W191">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X191">
+        <v>0.13699999999999998</v>
+      </c>
+      <c r="Y191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>2003</v>
       </c>
@@ -16069,8 +16223,14 @@
       <c r="W192">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X192">
+        <v>9.3000000000000013E-2</v>
+      </c>
+      <c r="Y192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>2003</v>
       </c>
@@ -16149,8 +16309,14 @@
       <c r="W193">
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X193">
+        <v>0.23399999999999999</v>
+      </c>
+      <c r="Y193">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>2004</v>
       </c>
@@ -16229,8 +16395,14 @@
       <c r="W194">
         <v>7.6999999999999999E-2</v>
       </c>
-    </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X194">
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="Y194">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>2004</v>
       </c>
@@ -16309,8 +16481,14 @@
       <c r="W195">
         <v>7.6999999999999999E-2</v>
       </c>
-    </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X195">
+        <v>0.19</v>
+      </c>
+      <c r="Y195">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>2004</v>
       </c>
@@ -16389,8 +16567,14 @@
       <c r="W196">
         <v>9.0999999999999998E-2</v>
       </c>
-    </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X196">
+        <v>1.1000000000000001E-2</v>
+      </c>
+      <c r="Y196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>2004</v>
       </c>
@@ -16469,8 +16653,14 @@
       <c r="W197">
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X197">
+        <v>9.3000000000000013E-2</v>
+      </c>
+      <c r="Y197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>2004</v>
       </c>
@@ -16549,8 +16739,14 @@
       <c r="W198">
         <v>0.128</v>
       </c>
-    </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X198">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="Y198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>2004</v>
       </c>
@@ -16629,8 +16825,14 @@
       <c r="W199">
         <v>0.123</v>
       </c>
-    </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X199">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="Y199">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>2004</v>
       </c>
@@ -16709,8 +16911,14 @@
       <c r="W200">
         <v>0.10100000000000001</v>
       </c>
-    </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X200">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="Y200">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>2004</v>
       </c>
@@ -16789,8 +16997,14 @@
       <c r="W201">
         <v>2.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X201">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="Y201">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>2004</v>
       </c>
@@ -16869,8 +17083,14 @@
       <c r="W202">
         <v>7.5999999999999998E-2</v>
       </c>
-    </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X202">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="Y202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>2004</v>
       </c>
@@ -16949,8 +17169,14 @@
       <c r="W203">
         <v>7.0999999999999994E-2</v>
       </c>
-    </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X203">
+        <v>4.4000000000000004E-2</v>
+      </c>
+      <c r="Y203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>2004</v>
       </c>
@@ -17029,8 +17255,14 @@
       <c r="W204">
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X204">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="Y204">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>2004</v>
       </c>
@@ -17109,8 +17341,14 @@
       <c r="W205">
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X205">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Y205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>2004</v>
       </c>
@@ -17189,8 +17427,14 @@
       <c r="W206">
         <v>5.0999999999999997E-2</v>
       </c>
-    </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X206">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="Y206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>2004</v>
       </c>
@@ -17269,8 +17513,14 @@
       <c r="W207">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X207">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="Y207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>2004</v>
       </c>
@@ -17349,8 +17599,14 @@
       <c r="W208">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X208">
+        <v>0.11599999999999999</v>
+      </c>
+      <c r="Y208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>2004</v>
       </c>
@@ -17429,8 +17685,14 @@
       <c r="W209">
         <v>4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X209">
+        <v>0.26</v>
+      </c>
+      <c r="Y209">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>2005</v>
       </c>
@@ -17509,8 +17771,14 @@
       <c r="W210">
         <v>7.6999999999999999E-2</v>
       </c>
-    </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X210">
+        <v>0.1</v>
+      </c>
+      <c r="Y210">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>2005</v>
       </c>
@@ -17589,8 +17857,14 @@
       <c r="W211">
         <v>7.6999999999999999E-2</v>
       </c>
-    </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X211">
+        <v>0.18</v>
+      </c>
+      <c r="Y211">
+        <v>6.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>2005</v>
       </c>
@@ -17669,8 +17943,14 @@
       <c r="W212">
         <v>9.0999999999999998E-2</v>
       </c>
-    </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X212">
+        <v>1.1000000000000001E-2</v>
+      </c>
+      <c r="Y212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>2005</v>
       </c>
@@ -17749,8 +18029,14 @@
       <c r="W213">
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X213">
+        <v>0.10800000000000001</v>
+      </c>
+      <c r="Y213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>2005</v>
       </c>
@@ -17829,8 +18115,14 @@
       <c r="W214">
         <v>0.128</v>
       </c>
-    </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X214">
+        <v>2.8999999999999998E-2</v>
+      </c>
+      <c r="Y214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>2005</v>
       </c>
@@ -17909,8 +18201,14 @@
       <c r="W215">
         <v>0.123</v>
       </c>
-    </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X215">
+        <v>9.4E-2</v>
+      </c>
+      <c r="Y215">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>2005</v>
       </c>
@@ -17989,8 +18287,14 @@
       <c r="W216">
         <v>0.10100000000000001</v>
       </c>
-    </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X216">
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="Y216">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>2005</v>
       </c>
@@ -18069,8 +18373,14 @@
       <c r="W217">
         <v>2.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X217">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="Y217">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>2005</v>
       </c>
@@ -18149,8 +18459,14 @@
       <c r="W218">
         <v>7.5999999999999998E-2</v>
       </c>
-    </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X218">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="Y218">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>2005</v>
       </c>
@@ -18229,8 +18545,14 @@
       <c r="W219">
         <v>6.1800000000000001E-2</v>
       </c>
-    </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X219">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="Y219">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>2005</v>
       </c>
@@ -18309,8 +18631,14 @@
       <c r="W220">
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X220">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="Y220">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>2005</v>
       </c>
@@ -18389,8 +18717,14 @@
       <c r="W221">
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X221">
+        <v>2.6000000000000002E-2</v>
+      </c>
+      <c r="Y221">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>2005</v>
       </c>
@@ -18469,8 +18803,14 @@
       <c r="W222">
         <v>5.0999999999999997E-2</v>
       </c>
-    </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X222">
+        <v>5.5E-2</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>2005</v>
       </c>
@@ -18549,8 +18889,14 @@
       <c r="W223">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X223">
+        <v>0.192</v>
+      </c>
+      <c r="Y223">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>2005</v>
       </c>
@@ -18629,8 +18975,14 @@
       <c r="W224">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X224">
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="Y224">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>2005</v>
       </c>
@@ -18709,8 +19061,14 @@
       <c r="W225">
         <v>4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X225">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="Y225">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>2006</v>
       </c>
@@ -18789,8 +19147,14 @@
       <c r="W226">
         <v>0.11700000000000001</v>
       </c>
-    </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X226">
+        <v>0.11599999999999999</v>
+      </c>
+      <c r="Y226">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>2006</v>
       </c>
@@ -18869,8 +19233,14 @@
       <c r="W227">
         <v>7.6999999999999999E-2</v>
       </c>
-    </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X227">
+        <v>0.19899999999999998</v>
+      </c>
+      <c r="Y227">
+        <v>1.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>2006</v>
       </c>
@@ -18949,8 +19319,14 @@
       <c r="W228">
         <v>0.13100000000000001</v>
       </c>
-    </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X228">
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>2006</v>
       </c>
@@ -19029,8 +19405,14 @@
       <c r="W229">
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X229">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>2006</v>
       </c>
@@ -19109,8 +19491,14 @@
       <c r="W230">
         <v>0.128</v>
       </c>
-    </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X230">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>2006</v>
       </c>
@@ -19189,8 +19577,14 @@
       <c r="W231">
         <v>0.123</v>
       </c>
-    </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X231">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="Y231">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>2006</v>
       </c>
@@ -19269,8 +19663,14 @@
       <c r="W232">
         <v>0.10100000000000001</v>
       </c>
-    </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X232">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="Y232">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>2006</v>
       </c>
@@ -19350,7 +19750,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>2006</v>
       </c>
@@ -19429,8 +19829,14 @@
       <c r="W234">
         <v>7.5999999999999998E-2</v>
       </c>
-    </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X234">
+        <v>0.161</v>
+      </c>
+      <c r="Y234">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>2006</v>
       </c>
@@ -19509,8 +19915,14 @@
       <c r="W235">
         <v>6.1800000000000001E-2</v>
       </c>
-    </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X235">
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="Y235">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>2006</v>
       </c>
@@ -19589,8 +20001,14 @@
       <c r="W236">
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X236">
+        <v>0.214</v>
+      </c>
+      <c r="Y236">
+        <v>6.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>2006</v>
       </c>
@@ -19669,8 +20087,14 @@
       <c r="W237">
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X237">
+        <v>3.7000000000000005E-2</v>
+      </c>
+      <c r="Y237">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>2006</v>
       </c>
@@ -19749,8 +20173,14 @@
       <c r="W238">
         <v>5.0999999999999997E-2</v>
       </c>
-    </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X238">
+        <v>5.9000000000000004E-2</v>
+      </c>
+      <c r="Y238">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>2006</v>
       </c>
@@ -19829,8 +20259,14 @@
       <c r="W239">
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X239">
+        <v>0.222</v>
+      </c>
+      <c r="Y239">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>2006</v>
       </c>
@@ -19909,8 +20345,14 @@
       <c r="W240">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X240">
+        <v>0.11800000000000001</v>
+      </c>
+      <c r="Y240">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>2006</v>
       </c>
@@ -19989,8 +20431,14 @@
       <c r="W241">
         <v>4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X241">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="Y241">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>2007</v>
       </c>
@@ -20069,8 +20517,14 @@
       <c r="W242">
         <v>0.11700000000000001</v>
       </c>
-    </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X242">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="Y242">
+        <v>9.0000000000000011E-3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>2007</v>
       </c>
@@ -20149,8 +20603,14 @@
       <c r="W243">
         <v>7.6999999999999999E-2</v>
       </c>
-    </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X243">
+        <v>0.21600000000000003</v>
+      </c>
+      <c r="Y243">
+        <v>1.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>2007</v>
       </c>
@@ -20229,8 +20689,14 @@
       <c r="W244">
         <v>0.13100000000000001</v>
       </c>
-    </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X244">
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="Y244">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>2007</v>
       </c>
@@ -20309,8 +20775,14 @@
       <c r="W245">
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X245">
+        <v>0.17</v>
+      </c>
+      <c r="Y245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>2007</v>
       </c>
@@ -20389,8 +20861,14 @@
       <c r="W246">
         <v>0.16500000000000001</v>
       </c>
-    </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X246">
+        <v>3.9E-2</v>
+      </c>
+      <c r="Y246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>2007</v>
       </c>
@@ -20469,8 +20947,14 @@
       <c r="W247">
         <v>0.123</v>
       </c>
-    </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X247">
+        <v>0.161</v>
+      </c>
+      <c r="Y247">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>2007</v>
       </c>
@@ -20549,8 +21033,14 @@
       <c r="W248">
         <v>0.10100000000000001</v>
       </c>
-    </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X248">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="Y248">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="249" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>2007</v>
       </c>
@@ -20629,8 +21119,14 @@
       <c r="W249">
         <v>3.4000000000000002E-2</v>
       </c>
-    </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X249">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="Y249">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>2007</v>
       </c>
@@ -20709,8 +21205,14 @@
       <c r="W250">
         <v>7.5999999999999998E-2</v>
       </c>
-    </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X250">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="Y250">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>2007</v>
       </c>
@@ -20789,8 +21291,14 @@
       <c r="W251">
         <v>6.1800000000000001E-2</v>
       </c>
-    </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X251">
+        <v>5.5E-2</v>
+      </c>
+      <c r="Y251">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>2007</v>
       </c>
@@ -20869,8 +21377,14 @@
       <c r="W252">
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X252">
+        <v>0.249</v>
+      </c>
+      <c r="Y252">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="253" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>2007</v>
       </c>
@@ -20949,8 +21463,14 @@
       <c r="W253">
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X253">
+        <v>0.04</v>
+      </c>
+      <c r="Y253">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>2007</v>
       </c>
@@ -21029,8 +21549,14 @@
       <c r="W254">
         <v>5.0999999999999997E-2</v>
       </c>
-    </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X254">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="Y254">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>2007</v>
       </c>
@@ -21109,8 +21635,14 @@
       <c r="W255">
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X255">
+        <v>0.307</v>
+      </c>
+      <c r="Y255">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>2007</v>
       </c>
@@ -21189,8 +21721,14 @@
       <c r="W256">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X256">
+        <v>0.19</v>
+      </c>
+      <c r="Y256">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>2007</v>
       </c>
@@ -21269,8 +21807,14 @@
       <c r="W257">
         <v>4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="258" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X257">
+        <v>0.376</v>
+      </c>
+      <c r="Y257">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>2008</v>
       </c>
@@ -21349,8 +21893,14 @@
       <c r="W258">
         <v>0.11700000000000001</v>
       </c>
-    </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X258">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="Y258">
+        <v>1.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>2008</v>
       </c>
@@ -21429,8 +21979,14 @@
       <c r="W259">
         <v>9.4E-2</v>
       </c>
-    </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X259">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="Y259">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="260" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>2008</v>
       </c>
@@ -21509,8 +22065,11 @@
       <c r="W260">
         <v>0.13100000000000001</v>
       </c>
-    </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X260">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>2008</v>
       </c>
@@ -21589,8 +22148,14 @@
       <c r="W261">
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X261">
+        <v>0.17</v>
+      </c>
+      <c r="Y261">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>2008</v>
       </c>
@@ -21669,8 +22234,14 @@
       <c r="W262">
         <v>0.16500000000000001</v>
       </c>
-    </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X262">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="Y262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>2008</v>
       </c>
@@ -21749,8 +22320,14 @@
       <c r="W263">
         <v>9.6000000000000002E-2</v>
       </c>
-    </row>
-    <row r="264" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X263">
+        <v>0.17</v>
+      </c>
+      <c r="Y263">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>2008</v>
       </c>
@@ -21829,8 +22406,14 @@
       <c r="W264">
         <v>7.4999999999999997E-2</v>
       </c>
-    </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X264">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="Y264">
+        <v>6.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>2008</v>
       </c>
@@ -21909,8 +22492,14 @@
       <c r="W265">
         <v>3.4000000000000002E-2</v>
       </c>
-    </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X265">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="Y265">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>2008</v>
       </c>
@@ -21989,8 +22578,14 @@
       <c r="W266">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X266">
+        <v>0.222</v>
+      </c>
+      <c r="Y266">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>2008</v>
       </c>
@@ -22069,8 +22664,14 @@
       <c r="W267">
         <v>6.1800000000000001E-2</v>
       </c>
-    </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X267">
+        <v>4.4000000000000004E-2</v>
+      </c>
+      <c r="Y267">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>2008</v>
       </c>
@@ -22149,8 +22750,14 @@
       <c r="W268">
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X268">
+        <v>0.23800000000000002</v>
+      </c>
+      <c r="Y268">
+        <v>1.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>2008</v>
       </c>
@@ -22229,8 +22836,14 @@
       <c r="W269">
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X269">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="Y269">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>2008</v>
       </c>
@@ -22309,8 +22922,14 @@
       <c r="W270">
         <v>5.0999999999999997E-2</v>
       </c>
-    </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X270">
+        <v>8.199999999999999E-2</v>
+      </c>
+      <c r="Y270">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>2008</v>
       </c>
@@ -22389,8 +23008,14 @@
       <c r="W271">
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="272" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X271">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="Y271">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>2008</v>
       </c>
@@ -22469,8 +23094,14 @@
       <c r="W272">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="273" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X272">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="Y272">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>2008</v>
       </c>
@@ -22549,8 +23180,14 @@
       <c r="W273">
         <v>4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X273">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="Y273">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>2009</v>
       </c>
@@ -22629,8 +23266,14 @@
       <c r="W274">
         <v>0.11700000000000001</v>
       </c>
-    </row>
-    <row r="275" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X274">
+        <v>0.15</v>
+      </c>
+      <c r="Y274">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>2009</v>
       </c>
@@ -22709,8 +23352,14 @@
       <c r="W275">
         <v>9.4E-2</v>
       </c>
-    </row>
-    <row r="276" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X275">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="Y275">
+        <v>2.7999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>2009</v>
       </c>
@@ -22789,8 +23438,11 @@
       <c r="W276">
         <v>0.13100000000000001</v>
       </c>
-    </row>
-    <row r="277" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X276">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>2009</v>
       </c>
@@ -22869,8 +23521,14 @@
       <c r="W277">
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="278" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X277">
+        <v>0.18600000000000003</v>
+      </c>
+      <c r="Y277">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>2009</v>
       </c>
@@ -22949,8 +23607,14 @@
       <c r="W278">
         <v>0.16500000000000001</v>
       </c>
-    </row>
-    <row r="279" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X278">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="Y278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>2009</v>
       </c>
@@ -23029,8 +23693,14 @@
       <c r="W279">
         <v>9.6000000000000002E-2</v>
       </c>
-    </row>
-    <row r="280" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X279">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="Y279">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>2009</v>
       </c>
@@ -23109,8 +23779,14 @@
       <c r="W280">
         <v>0.13500000000000001</v>
       </c>
-    </row>
-    <row r="281" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X280">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="Y280">
+        <v>2.2000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>2009</v>
       </c>
@@ -23189,8 +23865,14 @@
       <c r="W281">
         <v>3.4000000000000002E-2</v>
       </c>
-    </row>
-    <row r="282" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X281">
+        <v>0.503</v>
+      </c>
+      <c r="Y281">
+        <v>6.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>2009</v>
       </c>
@@ -23269,8 +23951,14 @@
       <c r="W282">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="283" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X282">
+        <v>0.217</v>
+      </c>
+      <c r="Y282">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>2009</v>
       </c>
@@ -23349,8 +24037,14 @@
       <c r="W283">
         <v>6.1800000000000001E-2</v>
       </c>
-    </row>
-    <row r="284" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X283">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="Y283">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>2009</v>
       </c>
@@ -23429,8 +24123,14 @@
       <c r="W284">
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="285" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X284">
+        <v>0.253</v>
+      </c>
+      <c r="Y284">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>2009</v>
       </c>
@@ -23509,8 +24209,14 @@
       <c r="W285">
         <v>5.8999999999999997E-2</v>
       </c>
-    </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X285">
+        <v>5.5999999999999994E-2</v>
+      </c>
+      <c r="Y285">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>2009</v>
       </c>
@@ -23589,8 +24295,14 @@
       <c r="W286">
         <v>6.4000000000000001E-2</v>
       </c>
-    </row>
-    <row r="287" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X286">
+        <v>8.199999999999999E-2</v>
+      </c>
+      <c r="Y286">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>2009</v>
       </c>
@@ -23669,8 +24381,14 @@
       <c r="W287">
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="288" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X287">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="Y287">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>2009</v>
       </c>
@@ -23749,8 +24467,14 @@
       <c r="W288">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="289" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X288">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="Y288">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>2009</v>
       </c>
@@ -23829,8 +24553,14 @@
       <c r="W289">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="290" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X289">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="Y289">
+        <v>1.3000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>2010</v>
       </c>
@@ -23910,8 +24640,14 @@
       <c r="W290">
         <v>0.11700000000000001</v>
       </c>
-    </row>
-    <row r="291" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X290">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="Y290">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>2010</v>
       </c>
@@ -23991,8 +24727,14 @@
       <c r="W291">
         <v>9.4E-2</v>
       </c>
-    </row>
-    <row r="292" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X291">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="Y291">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>2010</v>
       </c>
@@ -24072,8 +24814,14 @@
       <c r="W292">
         <v>0.13100000000000001</v>
       </c>
-    </row>
-    <row r="293" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X292">
+        <v>0.04</v>
+      </c>
+      <c r="Y292">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>2010</v>
       </c>
@@ -24153,8 +24901,14 @@
       <c r="W293">
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="294" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X293">
+        <v>0.19899999999999998</v>
+      </c>
+      <c r="Y293">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>2010</v>
       </c>
@@ -24234,8 +24988,14 @@
       <c r="W294">
         <v>0.16500000000000001</v>
       </c>
-    </row>
-    <row r="295" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X294">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="Y294">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>2010</v>
       </c>
@@ -24315,8 +25075,14 @@
       <c r="W295">
         <v>9.6000000000000002E-2</v>
       </c>
-    </row>
-    <row r="296" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X295">
+        <v>0.128</v>
+      </c>
+      <c r="Y295">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>2010</v>
       </c>
@@ -24396,8 +25162,14 @@
       <c r="W296">
         <v>0.13500000000000001</v>
       </c>
-    </row>
-    <row r="297" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X296">
+        <v>0.107</v>
+      </c>
+      <c r="Y296">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="297" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>2010</v>
       </c>
@@ -24477,8 +25249,14 @@
       <c r="W297">
         <v>3.4000000000000002E-2</v>
       </c>
-    </row>
-    <row r="298" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X297">
+        <v>0.46</v>
+      </c>
+      <c r="Y297">
+        <v>1.3000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>2010</v>
       </c>
@@ -24558,8 +25336,14 @@
       <c r="W298">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="299" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X298">
+        <v>0.217</v>
+      </c>
+      <c r="Y298">
+        <v>1.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>2010</v>
       </c>
@@ -24639,8 +25423,14 @@
       <c r="W299">
         <v>0.121</v>
       </c>
-    </row>
-    <row r="300" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X299">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="Y299">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>2010</v>
       </c>
@@ -24720,8 +25510,14 @@
       <c r="W300">
         <v>4.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="301" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X300">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="Y300">
+        <v>3.6000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>2010</v>
       </c>
@@ -24801,8 +25597,14 @@
       <c r="W301">
         <v>5.8999999999999997E-2</v>
       </c>
-    </row>
-    <row r="302" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X301">
+        <v>7.400000000000001E-2</v>
+      </c>
+      <c r="Y301">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>2010</v>
       </c>
@@ -24882,8 +25684,14 @@
       <c r="W302">
         <v>6.4000000000000001E-2</v>
       </c>
-    </row>
-    <row r="303" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X302">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="Y302">
+        <v>9.0000000000000011E-3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>2010</v>
       </c>
@@ -24963,8 +25771,14 @@
       <c r="W303">
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="304" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X303">
+        <v>0.34600000000000003</v>
+      </c>
+      <c r="Y303">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>2010</v>
       </c>
@@ -25044,8 +25858,14 @@
       <c r="W304">
         <v>0.124</v>
       </c>
-    </row>
-    <row r="305" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X304">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Y304">
+        <v>1.8000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>2010</v>
       </c>
@@ -25125,8 +25945,14 @@
       <c r="W305">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="306" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X305">
+        <v>0.40700000000000003</v>
+      </c>
+      <c r="Y305">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>2011</v>
       </c>
@@ -25205,8 +26031,14 @@
       <c r="W306">
         <v>0.24199999999999999</v>
       </c>
-    </row>
-    <row r="307" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X306">
+        <v>0.19899999999999998</v>
+      </c>
+      <c r="Y306">
+        <v>5.5999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>2011</v>
       </c>
@@ -25285,8 +26117,14 @@
       <c r="W307">
         <v>9.4E-2</v>
       </c>
-    </row>
-    <row r="308" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X307">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="Y307">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="308" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>2011</v>
       </c>
@@ -25365,8 +26203,14 @@
       <c r="W308">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="309" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X308">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="Y308">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>2011</v>
       </c>
@@ -25445,8 +26289,14 @@
       <c r="W309">
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="310" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X309">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="Y309">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>2011</v>
       </c>
@@ -25525,8 +26375,14 @@
       <c r="W310">
         <v>0.22500000000000001</v>
       </c>
-    </row>
-    <row r="311" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X310">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y310">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>2011</v>
       </c>
@@ -25605,8 +26461,14 @@
       <c r="W311">
         <v>0.112</v>
       </c>
-    </row>
-    <row r="312" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X311">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="Y311">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>2011</v>
       </c>
@@ -25685,8 +26547,14 @@
       <c r="W312">
         <v>0.13500000000000001</v>
       </c>
-    </row>
-    <row r="313" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X312">
+        <v>0.19899999999999998</v>
+      </c>
+      <c r="Y312">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>2011</v>
       </c>
@@ -25765,8 +26633,14 @@
       <c r="W313">
         <v>8.6999999999999994E-2</v>
       </c>
-    </row>
-    <row r="314" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X313">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="Y313">
+        <v>2.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>2011</v>
       </c>
@@ -25845,8 +26719,14 @@
       <c r="W314">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="315" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X314">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Y314">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>2011</v>
       </c>
@@ -25925,8 +26805,14 @@
       <c r="W315">
         <v>0.121</v>
       </c>
-    </row>
-    <row r="316" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X315">
+        <v>7.400000000000001E-2</v>
+      </c>
+      <c r="Y315">
+        <v>1.3000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>2011</v>
       </c>
@@ -26005,8 +26891,14 @@
       <c r="W316">
         <v>0.154</v>
       </c>
-    </row>
-    <row r="317" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X316">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="Y316">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>2011</v>
       </c>
@@ -26085,8 +26977,14 @@
       <c r="W317">
         <v>5.8999999999999997E-2</v>
       </c>
-    </row>
-    <row r="318" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X317">
+        <v>7.8E-2</v>
+      </c>
+      <c r="Y317">
+        <v>2.2000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>2011</v>
       </c>
@@ -26165,8 +27063,14 @@
       <c r="W318">
         <v>6.4000000000000001E-2</v>
       </c>
-    </row>
-    <row r="319" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X318">
+        <v>0.107</v>
+      </c>
+      <c r="Y318">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>2011</v>
       </c>
@@ -26245,8 +27149,14 @@
       <c r="W319">
         <v>7.0999999999999994E-2</v>
       </c>
-    </row>
-    <row r="320" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X319">
+        <v>0.39</v>
+      </c>
+      <c r="Y319">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>2011</v>
       </c>
@@ -26325,8 +27235,14 @@
       <c r="W320">
         <v>0.124</v>
       </c>
-    </row>
-    <row r="321" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X320">
+        <v>0.36700000000000005</v>
+      </c>
+      <c r="Y320">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>2011</v>
       </c>
@@ -26405,8 +27321,14 @@
       <c r="W321">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="322" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X321">
+        <v>0.47</v>
+      </c>
+      <c r="Y321">
+        <v>4.4000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>2012</v>
       </c>
@@ -26486,8 +27408,14 @@
       <c r="W322">
         <v>0.24199999999999999</v>
       </c>
-    </row>
-    <row r="323" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X322">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="Y322">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>2012</v>
       </c>
@@ -26567,8 +27495,14 @@
       <c r="W323">
         <v>9.4E-2</v>
       </c>
-    </row>
-    <row r="324" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X323">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="Y323">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>2012</v>
       </c>
@@ -26648,8 +27582,14 @@
       <c r="W324">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="325" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X324">
+        <v>3.1E-2</v>
+      </c>
+      <c r="Y324">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>2012</v>
       </c>
@@ -26729,8 +27669,14 @@
       <c r="W325">
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="326" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X325">
+        <v>0.23199999999999998</v>
+      </c>
+      <c r="Y325">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="326" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>2012</v>
       </c>
@@ -26810,8 +27756,14 @@
       <c r="W326">
         <v>0.22500000000000001</v>
       </c>
-    </row>
-    <row r="327" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X326">
+        <v>7.8E-2</v>
+      </c>
+      <c r="Y326">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>2012</v>
       </c>
@@ -26891,8 +27843,14 @@
       <c r="W327">
         <v>0.112</v>
       </c>
-    </row>
-    <row r="328" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X327">
+        <v>0.161</v>
+      </c>
+      <c r="Y327">
+        <v>9.0000000000000011E-3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>2012</v>
       </c>
@@ -26972,8 +27930,14 @@
       <c r="W328">
         <v>0.13500000000000001</v>
       </c>
-    </row>
-    <row r="329" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X328">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="Y328">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>2012</v>
       </c>
@@ -27053,8 +28017,14 @@
       <c r="W329">
         <v>8.6999999999999994E-2</v>
       </c>
-    </row>
-    <row r="330" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X329">
+        <v>0.54299999999999993</v>
+      </c>
+      <c r="Y329">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>2012</v>
       </c>
@@ -27134,8 +28104,14 @@
       <c r="W330">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="331" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X330">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="Y330">
+        <v>3.6000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>2012</v>
       </c>
@@ -27215,8 +28191,14 @@
       <c r="W331">
         <v>0.113</v>
       </c>
-    </row>
-    <row r="332" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X331">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="Y331">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>2012</v>
       </c>
@@ -27296,8 +28278,14 @@
       <c r="W332">
         <v>0.154</v>
       </c>
-    </row>
-    <row r="333" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X332">
+        <v>0.33399999999999996</v>
+      </c>
+      <c r="Y332">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>2012</v>
       </c>
@@ -27377,8 +28365,14 @@
       <c r="W333">
         <v>5.04E-2</v>
       </c>
-    </row>
-    <row r="334" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X333">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="Y333">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>2012</v>
       </c>
@@ -27458,8 +28452,14 @@
       <c r="W334">
         <v>6.4000000000000001E-2</v>
       </c>
-    </row>
-    <row r="335" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X334">
+        <v>0.113</v>
+      </c>
+      <c r="Y334">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>2012</v>
       </c>
@@ -27539,8 +28539,14 @@
       <c r="W335">
         <v>7.0999999999999994E-2</v>
       </c>
-    </row>
-    <row r="336" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X335">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="Y335">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="336" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>2012</v>
       </c>
@@ -27620,8 +28626,14 @@
       <c r="W336">
         <v>0.13200000000000001</v>
       </c>
-    </row>
-    <row r="337" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X336">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="Y336">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="337" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>2012</v>
       </c>
@@ -27701,8 +28713,14 @@
       <c r="W337">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="338" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X337">
+        <v>0.502</v>
+      </c>
+      <c r="Y337">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>2013</v>
       </c>
@@ -27782,8 +28800,14 @@
       <c r="W338">
         <v>0.24199999999999999</v>
       </c>
-    </row>
-    <row r="339" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X338">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="Y338">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>2013</v>
       </c>
@@ -27863,8 +28887,14 @@
       <c r="W339">
         <v>8.5999999999999993E-2</v>
       </c>
-    </row>
-    <row r="340" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X339">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="Y339">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>2013</v>
       </c>
@@ -27944,8 +28974,14 @@
       <c r="W340">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="341" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X340">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="Y340">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>2013</v>
       </c>
@@ -28025,8 +29061,14 @@
       <c r="W341">
         <v>5.6000000000000001E-2</v>
       </c>
-    </row>
-    <row r="342" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X341">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="Y341">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>2013</v>
       </c>
@@ -28106,8 +29148,14 @@
       <c r="W342">
         <v>0.22500000000000001</v>
       </c>
-    </row>
-    <row r="343" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X342">
+        <v>9.6999999999999989E-2</v>
+      </c>
+      <c r="Y342">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>2013</v>
       </c>
@@ -28187,8 +29235,14 @@
       <c r="W343">
         <v>0.112</v>
       </c>
-    </row>
-    <row r="344" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X343">
+        <v>0.153</v>
+      </c>
+      <c r="Y343">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="344" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>2013</v>
       </c>
@@ -28268,8 +29322,14 @@
       <c r="W344">
         <v>0.111</v>
       </c>
-    </row>
-    <row r="345" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X344">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="Y344">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>2013</v>
       </c>
@@ -28349,8 +29409,14 @@
       <c r="W345">
         <v>8.6999999999999994E-2</v>
       </c>
-    </row>
-    <row r="346" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X345">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="Y345">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>2013</v>
       </c>
@@ -28430,8 +29496,14 @@
       <c r="W346">
         <v>0.13700000000000001</v>
       </c>
-    </row>
-    <row r="347" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X346">
+        <v>0.34600000000000003</v>
+      </c>
+      <c r="Y346">
+        <v>3.7000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>2013</v>
       </c>
@@ -28511,8 +29583,14 @@
       <c r="W347">
         <v>0.113</v>
       </c>
-    </row>
-    <row r="348" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X347">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="Y347">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>2013</v>
       </c>
@@ -28592,8 +29670,14 @@
       <c r="W348">
         <v>0.154</v>
       </c>
-    </row>
-    <row r="349" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X348">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="Y348">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>2013</v>
       </c>
@@ -28673,8 +29757,14 @@
       <c r="W349">
         <v>5.04E-2</v>
       </c>
-    </row>
-    <row r="350" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X349">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="Y349">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>2013</v>
       </c>
@@ -28754,8 +29844,14 @@
       <c r="W350">
         <v>6.4000000000000001E-2</v>
       </c>
-    </row>
-    <row r="351" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X350">
+        <v>0.111</v>
+      </c>
+      <c r="Y350">
+        <v>2.7999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>2013</v>
       </c>
@@ -28835,8 +29931,14 @@
       <c r="W351">
         <v>7.0999999999999994E-2</v>
       </c>
-    </row>
-    <row r="352" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X351">
+        <v>0.44799999999999995</v>
+      </c>
+      <c r="Y351">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>2013</v>
       </c>
@@ -28916,8 +30018,14 @@
       <c r="W352">
         <v>0.13200000000000001</v>
       </c>
-    </row>
-    <row r="353" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X352">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="Y352">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>2013</v>
       </c>
@@ -28997,8 +30105,14 @@
       <c r="W353">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="354" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X353">
+        <v>0.53799999999999992</v>
+      </c>
+      <c r="Y353">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>2014</v>
       </c>
@@ -29078,8 +30192,14 @@
       <c r="W354">
         <v>0.24199999999999999</v>
       </c>
-    </row>
-    <row r="355" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X354">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="Y354">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>2014</v>
       </c>
@@ -29159,8 +30279,14 @@
       <c r="W355">
         <v>8.5999999999999993E-2</v>
       </c>
-    </row>
-    <row r="356" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X355">
+        <v>0.36200000000000004</v>
+      </c>
+      <c r="Y355">
+        <v>0.11800000000000001</v>
+      </c>
+    </row>
+    <row r="356" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>2014</v>
       </c>
@@ -29240,8 +30366,14 @@
       <c r="W356">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="357" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X356">
+        <v>0.04</v>
+      </c>
+      <c r="Y356">
+        <v>6.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>2014</v>
       </c>
@@ -29321,8 +30453,14 @@
       <c r="W357">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="358" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X357">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="Y357">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>2014</v>
       </c>
@@ -29402,8 +30540,14 @@
       <c r="W358">
         <v>0.22500000000000001</v>
       </c>
-    </row>
-    <row r="359" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X358">
+        <v>0.115</v>
+      </c>
+      <c r="Y358">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>2014</v>
       </c>
@@ -29483,8 +30627,14 @@
       <c r="W359">
         <v>0.112</v>
       </c>
-    </row>
-    <row r="360" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X359">
+        <v>0.12</v>
+      </c>
+      <c r="Y359">
+        <v>6.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>2014</v>
       </c>
@@ -29564,8 +30714,14 @@
       <c r="W360">
         <v>0.111</v>
       </c>
-    </row>
-    <row r="361" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X360">
+        <v>0.40299999999999997</v>
+      </c>
+      <c r="Y360">
+        <v>0.11599999999999999</v>
+      </c>
+    </row>
+    <row r="361" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>2014</v>
       </c>
@@ -29645,8 +30801,14 @@
       <c r="W361">
         <v>8.6999999999999994E-2</v>
       </c>
-    </row>
-    <row r="362" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X361">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="Y361">
+        <v>8.8000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>2014</v>
       </c>
@@ -29726,8 +30888,14 @@
       <c r="W362">
         <v>0.13700000000000001</v>
       </c>
-    </row>
-    <row r="363" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X362">
+        <v>0.36</v>
+      </c>
+      <c r="Y362">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>2014</v>
       </c>
@@ -29807,8 +30975,14 @@
       <c r="W363">
         <v>0.113</v>
       </c>
-    </row>
-    <row r="364" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X363">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="Y363">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="364" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>2014</v>
       </c>
@@ -29888,8 +31062,14 @@
       <c r="W364">
         <v>0.154</v>
       </c>
-    </row>
-    <row r="365" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X364">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="Y364">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="365" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>2014</v>
       </c>
@@ -29969,8 +31149,14 @@
       <c r="W365">
         <v>5.04E-2</v>
       </c>
-    </row>
-    <row r="366" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X365">
+        <v>0.1</v>
+      </c>
+      <c r="Y365">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>2014</v>
       </c>
@@ -30050,8 +31236,14 @@
       <c r="W366">
         <v>5.7000000000000002E-2</v>
       </c>
-    </row>
-    <row r="367" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X366">
+        <v>0.11800000000000001</v>
+      </c>
+      <c r="Y366">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>2014</v>
       </c>
@@ -30131,8 +31323,14 @@
       <c r="W367">
         <v>7.0999999999999994E-2</v>
       </c>
-    </row>
-    <row r="368" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X367">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="Y367">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>2014</v>
       </c>
@@ -30212,8 +31410,14 @@
       <c r="W368">
         <v>0.13200000000000001</v>
       </c>
-    </row>
-    <row r="369" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X368">
+        <v>0.433</v>
+      </c>
+      <c r="Y368">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>2014</v>
       </c>
@@ -30293,8 +31497,14 @@
       <c r="W369">
         <v>5.7000000000000002E-2</v>
       </c>
-    </row>
-    <row r="370" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X369">
+        <v>0.54899999999999993</v>
+      </c>
+      <c r="Y369">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="370" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>2015</v>
       </c>
@@ -30374,8 +31584,14 @@
       <c r="W370">
         <v>0.24199999999999999</v>
       </c>
-    </row>
-    <row r="371" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X370">
+        <v>0.23600000000000002</v>
+      </c>
+      <c r="Y370">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>2015</v>
       </c>
@@ -30455,8 +31671,14 @@
       <c r="W371">
         <v>8.5999999999999993E-2</v>
       </c>
-    </row>
-    <row r="372" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X371">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="Y371">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="372" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>2015</v>
       </c>
@@ -30536,8 +31758,14 @@
       <c r="W372">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="373" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X372">
+        <v>4.7E-2</v>
+      </c>
+      <c r="Y372">
+        <v>9.0000000000000011E-3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>2015</v>
       </c>
@@ -30617,8 +31845,14 @@
       <c r="W373">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="374" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X373">
+        <v>0.29100000000000004</v>
+      </c>
+      <c r="Y373">
+        <v>5.2000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>2015</v>
       </c>
@@ -30698,8 +31932,14 @@
       <c r="W374">
         <v>0.151</v>
       </c>
-    </row>
-    <row r="375" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X374">
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="Y374">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>2015</v>
       </c>
@@ -30779,8 +32019,14 @@
       <c r="W375">
         <v>0.123</v>
       </c>
-    </row>
-    <row r="376" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X375">
+        <v>6.3E-2</v>
+      </c>
+      <c r="Y375">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>2015</v>
       </c>
@@ -30860,8 +32106,14 @@
       <c r="W376">
         <v>0.111</v>
       </c>
-    </row>
-    <row r="377" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X376">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="Y376">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="377" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>2015</v>
       </c>
@@ -30941,8 +32193,14 @@
       <c r="W377">
         <v>8.6999999999999994E-2</v>
       </c>
-    </row>
-    <row r="378" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X377">
+        <v>0.69900000000000007</v>
+      </c>
+      <c r="Y377">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>2015</v>
       </c>
@@ -31022,8 +32280,14 @@
       <c r="W378">
         <v>0.13700000000000001</v>
       </c>
-    </row>
-    <row r="379" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X378">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="Y378">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>2015</v>
       </c>
@@ -31103,8 +32367,14 @@
       <c r="W379">
         <v>0.113</v>
       </c>
-    </row>
-    <row r="380" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X379">
+        <v>0.111</v>
+      </c>
+      <c r="Y379">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>2015</v>
       </c>
@@ -31184,8 +32454,14 @@
       <c r="W380">
         <v>0.154</v>
       </c>
-    </row>
-    <row r="381" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X380">
+        <v>0.45399999999999996</v>
+      </c>
+      <c r="Y380">
+        <v>8.900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>2015</v>
       </c>
@@ -31265,8 +32541,14 @@
       <c r="W381">
         <v>5.04E-2</v>
       </c>
-    </row>
-    <row r="382" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X381">
+        <v>0.111</v>
+      </c>
+      <c r="Y381">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>2015</v>
       </c>
@@ -31346,8 +32628,14 @@
       <c r="W382">
         <v>5.7000000000000002E-2</v>
       </c>
-    </row>
-    <row r="383" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X382">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="Y382">
+        <v>3.7000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>2015</v>
       </c>
@@ -31427,8 +32715,14 @@
       <c r="W383">
         <v>7.0999999999999994E-2</v>
       </c>
-    </row>
-    <row r="384" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X383">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="Y383">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>2015</v>
       </c>
@@ -31508,8 +32802,14 @@
       <c r="W384">
         <v>0.13200000000000001</v>
       </c>
-    </row>
-    <row r="385" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X384">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="Y384">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>2015</v>
       </c>
@@ -31589,8 +32889,14 @@
       <c r="W385">
         <v>5.7000000000000002E-2</v>
       </c>
-    </row>
-    <row r="386" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X385">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="Y385">
+        <v>0.11699999999999999</v>
+      </c>
+    </row>
+    <row r="386" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>2016</v>
       </c>
@@ -31669,8 +32975,14 @@
       <c r="W386">
         <v>0.30299999999999999</v>
       </c>
-    </row>
-    <row r="387" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X386">
+        <v>0.253</v>
+      </c>
+      <c r="Y386">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>2016</v>
       </c>
@@ -31749,8 +33061,14 @@
       <c r="W387">
         <v>8.5999999999999993E-2</v>
       </c>
-    </row>
-    <row r="388" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X387">
+        <v>0.433</v>
+      </c>
+      <c r="Y387">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="388" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>2016</v>
       </c>
@@ -31829,8 +33147,14 @@
       <c r="W388">
         <v>0.152</v>
       </c>
-    </row>
-    <row r="389" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X388">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="Y388">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>2016</v>
       </c>
@@ -31909,8 +33233,14 @@
       <c r="W389">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="390" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X389">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="Y389">
+        <v>5.2000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>2016</v>
       </c>
@@ -31989,8 +33319,14 @@
       <c r="W390">
         <v>0.151</v>
       </c>
-    </row>
-    <row r="391" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X390">
+        <v>0.11599999999999999</v>
+      </c>
+      <c r="Y390">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>2016</v>
       </c>
@@ -32069,8 +33405,14 @@
       <c r="W391">
         <v>0.123</v>
       </c>
-    </row>
-    <row r="392" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X391">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="Y391">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>2016</v>
       </c>
@@ -32149,8 +33491,14 @@
       <c r="W392">
         <v>0.111</v>
       </c>
-    </row>
-    <row r="393" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X392">
+        <v>0.373</v>
+      </c>
+      <c r="Y392">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>2016</v>
       </c>
@@ -32229,8 +33577,14 @@
       <c r="W393">
         <v>4.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="394" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X393">
+        <v>0.66799999999999993</v>
+      </c>
+      <c r="Y393">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>2016</v>
       </c>
@@ -32309,8 +33663,14 @@
       <c r="W394">
         <v>0.13700000000000001</v>
       </c>
-    </row>
-    <row r="395" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X394">
+        <v>0.40299999999999997</v>
+      </c>
+      <c r="Y394">
+        <v>3.7000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>2016</v>
       </c>
@@ -32389,8 +33749,14 @@
       <c r="W395">
         <v>0.113</v>
       </c>
-    </row>
-    <row r="396" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X395">
+        <v>0.10300000000000001</v>
+      </c>
+      <c r="Y395">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>2016</v>
       </c>
@@ -32469,8 +33835,14 @@
       <c r="W396">
         <v>5.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="397" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X396">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="Y396">
+        <v>8.8000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>2016</v>
       </c>
@@ -32549,8 +33921,14 @@
       <c r="W397">
         <v>5.04E-2</v>
       </c>
-    </row>
-    <row r="398" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X397">
+        <v>0.14800000000000002</v>
+      </c>
+      <c r="Y397">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>2016</v>
       </c>
@@ -32629,8 +34007,14 @@
       <c r="W398">
         <v>5.7000000000000002E-2</v>
       </c>
-    </row>
-    <row r="399" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X398">
+        <v>0.128</v>
+      </c>
+      <c r="Y398">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>2016</v>
       </c>
@@ -32709,8 +34093,14 @@
       <c r="W399">
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="400" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X399">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="Y399">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>2016</v>
       </c>
@@ -32789,8 +34179,14 @@
       <c r="W400">
         <v>0.13200000000000001</v>
       </c>
-    </row>
-    <row r="401" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X400">
+        <v>0.54799999999999993</v>
+      </c>
+      <c r="Y400">
+        <v>3.7000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>2016</v>
       </c>
@@ -32869,8 +34265,14 @@
       <c r="W401">
         <v>5.7000000000000002E-2</v>
       </c>
-    </row>
-    <row r="402" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X401">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="Y401">
+        <v>0.11599999999999999</v>
+      </c>
+    </row>
+    <row r="402" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>2017</v>
       </c>
@@ -32950,8 +34352,14 @@
       <c r="W402">
         <v>0.30299999999999999</v>
       </c>
-    </row>
-    <row r="403" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X402">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="Y402">
+        <v>8.199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>2017</v>
       </c>
@@ -33031,8 +34439,14 @@
       <c r="W403">
         <v>8.5999999999999993E-2</v>
       </c>
-    </row>
-    <row r="404" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X403">
+        <v>0.441</v>
+      </c>
+      <c r="Y403">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="404" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>2017</v>
       </c>
@@ -33112,8 +34526,14 @@
       <c r="W404">
         <v>0.152</v>
       </c>
-    </row>
-    <row r="405" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X404">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="Y404">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>2017</v>
       </c>
@@ -33193,8 +34613,14 @@
       <c r="W405">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="406" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X405">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="Y405">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>2017</v>
       </c>
@@ -33274,8 +34700,14 @@
       <c r="W406">
         <v>0.151</v>
       </c>
-    </row>
-    <row r="407" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X406">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="Y406">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>2017</v>
       </c>
@@ -33355,8 +34787,14 @@
       <c r="W407">
         <v>0.123</v>
       </c>
-    </row>
-    <row r="408" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X407">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="Y407">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>2017</v>
       </c>
@@ -33436,8 +34874,14 @@
       <c r="W408">
         <v>0.111</v>
       </c>
-    </row>
-    <row r="409" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X408">
+        <v>0.433</v>
+      </c>
+      <c r="Y408">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>2017</v>
       </c>
@@ -33517,8 +34961,14 @@
       <c r="W409">
         <v>4.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="410" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X409">
+        <v>0.71900000000000008</v>
+      </c>
+      <c r="Y409">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>2017</v>
       </c>
@@ -33598,8 +35048,14 @@
       <c r="W410">
         <v>8.6999999999999994E-2</v>
       </c>
-    </row>
-    <row r="411" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X410">
+        <v>0.45299999999999996</v>
+      </c>
+      <c r="Y410">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>2017</v>
       </c>
@@ -33679,8 +35135,14 @@
       <c r="W411">
         <v>6.4000000000000001E-2</v>
       </c>
-    </row>
-    <row r="412" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X411">
+        <v>0.10800000000000001</v>
+      </c>
+      <c r="Y411">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>2017</v>
       </c>
@@ -33760,8 +35222,14 @@
       <c r="W412">
         <v>5.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="413" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X412">
+        <v>0.48100000000000004</v>
+      </c>
+      <c r="Y412">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="413" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>2017</v>
       </c>
@@ -33841,8 +35309,14 @@
       <c r="W413">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="414" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X413">
+        <v>0.192</v>
+      </c>
+      <c r="Y413">
+        <v>5.4000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>2017</v>
       </c>
@@ -33922,8 +35396,14 @@
       <c r="W414">
         <v>5.7000000000000002E-2</v>
       </c>
-    </row>
-    <row r="415" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X414">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="Y414">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>2017</v>
       </c>
@@ -34003,8 +35483,14 @@
       <c r="W415">
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="416" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X415">
+        <v>0.53</v>
+      </c>
+      <c r="Y415">
+        <v>7.400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>2017</v>
       </c>
@@ -34084,8 +35570,14 @@
       <c r="W416">
         <v>0.129</v>
       </c>
-    </row>
-    <row r="417" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X416">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="Y416">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>2017</v>
       </c>
@@ -34165,8 +35657,14 @@
       <c r="W417">
         <v>5.7000000000000002E-2</v>
       </c>
-    </row>
-    <row r="418" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X417">
+        <v>0.59</v>
+      </c>
+      <c r="Y417">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="418" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>2018</v>
       </c>
@@ -34247,7 +35745,7 @@
         <v>0.30299999999999999</v>
       </c>
     </row>
-    <row r="419" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>2018</v>
       </c>
@@ -34328,7 +35826,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="420" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>2018</v>
       </c>
@@ -34409,7 +35907,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="421" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>2018</v>
       </c>
@@ -34490,7 +35988,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="422" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>2018</v>
       </c>
@@ -34571,7 +36069,7 @@
         <v>0.151</v>
       </c>
     </row>
-    <row r="423" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>2018</v>
       </c>
@@ -34652,7 +36150,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="424" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>2018</v>
       </c>
@@ -34733,7 +36231,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="425" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>2018</v>
       </c>
@@ -34814,7 +36312,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>2018</v>
       </c>
@@ -34895,7 +36393,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="427" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>2018</v>
       </c>
@@ -34976,7 +36474,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="428" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>2018</v>
       </c>
@@ -35057,7 +36555,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="429" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>2018</v>
       </c>
@@ -35138,7 +36636,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="430" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>2018</v>
       </c>
@@ -35219,7 +36717,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="431" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>2018</v>
       </c>
@@ -35300,7 +36798,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="432" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>2018</v>
       </c>
